--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
-    <sheet name="首页提示语" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="大字" sheetId="4" r:id="rId2"/>
+    <sheet name="提醒" sheetId="5" r:id="rId3"/>
+    <sheet name="背景色" sheetId="6" r:id="rId4"/>
+    <sheet name="分享文字" sheetId="7" r:id="rId5"/>
+    <sheet name="backup" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="242">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,13 +300,643 @@
   <si>
     <t>XX(当前）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w7</t>
+  </si>
+  <si>
+    <t>w8</t>
+  </si>
+  <si>
+    <t>w9</t>
+  </si>
+  <si>
+    <t>w10</t>
+  </si>
+  <si>
+    <t>w13</t>
+  </si>
+  <si>
+    <t>w14</t>
+  </si>
+  <si>
+    <t>w15</t>
+  </si>
+  <si>
+    <t>w16</t>
+  </si>
+  <si>
+    <t>w17</t>
+  </si>
+  <si>
+    <t>w18</t>
+  </si>
+  <si>
+    <t>w20</t>
+  </si>
+  <si>
+    <t>w21</t>
+  </si>
+  <si>
+    <t>w30</t>
+  </si>
+  <si>
+    <t>w31</t>
+  </si>
+  <si>
+    <t>w32</t>
+  </si>
+  <si>
+    <t>w33</t>
+  </si>
+  <si>
+    <t>w34</t>
+  </si>
+  <si>
+    <t>w35</t>
+  </si>
+  <si>
+    <t>w36</t>
+  </si>
+  <si>
+    <t>snow shower day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有阵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴转多云</t>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风力7级以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气有雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得带伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比昨日降温超过5度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度骤降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度污染以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无忧出行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴空万里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴转阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudy day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气昏暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shower day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有阵雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷阵雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thunder shower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷阵雨并伴有冰雹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thunder shower hailstone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵雨冰雹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨夹雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨滂沱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中雨降临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heavy rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雨倾盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rainstorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雨来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有阵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雪飘过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪花纷飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heavy snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫天白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雪来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fog day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾气笼罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freezing rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻雨降临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙尘暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust storm day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙尘袭击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floating dust day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮尘飞扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudy night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fog night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚阵雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shower night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚阵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow shower night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚浮尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floating dust night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚沙尘暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust storm night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜明星稀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜空昏暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温最高XX度，请注意防暑!</t>
+  </si>
+  <si>
+    <t>温度骤降！请注意加衣保暖！</t>
+  </si>
+  <si>
+    <t>有强风，请尽量减少外出!</t>
+  </si>
+  <si>
+    <t>有超强风,强烈建议您不要外出!</t>
+  </si>
+  <si>
+    <t>今天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名</t>
+  </si>
+  <si>
+    <t>XX转XX，记得带伞哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度大于等于35°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日最低温度比昨日最低温度平均值降低5度以上</t>
+  </si>
+  <si>
+    <t>今日8~22点之间小雨以上</t>
+  </si>
+  <si>
+    <t>老条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6级别以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3~19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日最低温度比昨日最低温度平均值降低5度以上，且温度小于25°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A60042</t>
+  </si>
+  <si>
+    <t>#780082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#56005E</t>
+  </si>
+  <si>
+    <t>#75002F</t>
+  </si>
+  <si>
+    <t>#1BA602</t>
+  </si>
+  <si>
+    <t>#01A765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#018752</t>
+  </si>
+  <si>
+    <t>#016940</t>
+  </si>
+  <si>
+    <t>#158202</t>
+  </si>
+  <si>
+    <t>#0F5A01</t>
+  </si>
+  <si>
+    <t>#01A3E0</t>
+  </si>
+  <si>
+    <t>#015474</t>
+  </si>
+  <si>
+    <t>#3800A2</t>
+  </si>
+  <si>
+    <t>#003EE1</t>
+  </si>
+  <si>
+    <t>#4223ED</t>
+  </si>
+  <si>
+    <t>#555555</t>
+  </si>
+  <si>
+    <t>#01B4F8</t>
+  </si>
+  <si>
+    <t>#757575</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>#002B9B</t>
+  </si>
+  <si>
+    <t>#1A0048</t>
+  </si>
+  <si>
+    <t>#016287</t>
+  </si>
+  <si>
+    <t>#6C5200</t>
+  </si>
+  <si>
+    <t>#662E00</t>
+  </si>
+  <si>
+    <t>#666666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1EBD02</t>
+  </si>
+  <si>
+    <t>晚上有雨，记得带伞哦！</t>
+  </si>
+  <si>
+    <t>有高温警报，请注意防暑!</t>
+  </si>
+  <si>
+    <t>有空气污染，建议带口罩外出！</t>
+  </si>
+  <si>
+    <t>有空气污染，建议带口罩外出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm2.5中度污染以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(来自懒人天气）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +952,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,13 +1004,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -347,11 +1046,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -361,6 +1099,1435 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2439866" y="505559"/>
+          <a:ext cx="180974" cy="178043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="171450"/>
+          <a:ext cx="183173" cy="182973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="342901"/>
+          <a:ext cx="183172" cy="186102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="857250"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="685800"/>
+          <a:ext cx="183173" cy="186104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1885950"/>
+          <a:ext cx="190500" cy="193431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1543050"/>
+          <a:ext cx="183173" cy="186104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2439865" y="1362808"/>
+          <a:ext cx="183173" cy="183173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="1200151"/>
+          <a:ext cx="175845" cy="178776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175847</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="1714501"/>
+          <a:ext cx="175846" cy="178776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175845</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1028700"/>
+          <a:ext cx="175845" cy="178775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4286250"/>
+          <a:ext cx="183173" cy="186104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175847</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="3607777"/>
+          <a:ext cx="175846" cy="178777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>168521</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="3264878"/>
+          <a:ext cx="168520" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161193</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4797669"/>
+          <a:ext cx="161193" cy="164124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>168521</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="4629151"/>
+          <a:ext cx="168520" cy="171451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>168521</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="3933093"/>
+          <a:ext cx="168520" cy="171451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161193</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="3779226"/>
+          <a:ext cx="161193" cy="164124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>168521</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="4114801"/>
+          <a:ext cx="168520" cy="171451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175847</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="4457701"/>
+          <a:ext cx="175846" cy="178777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175847</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="3429001"/>
+          <a:ext cx="175846" cy="178777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>168519</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="3086100"/>
+          <a:ext cx="168519" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7328</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183174</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1378928" y="2914650"/>
+          <a:ext cx="175846" cy="178777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175847</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="2057401"/>
+          <a:ext cx="175846" cy="178777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175847</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="2400301"/>
+          <a:ext cx="175846" cy="178777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>168519</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="2228850"/>
+          <a:ext cx="168519" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175847</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="2571751"/>
+          <a:ext cx="175846" cy="178776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175847</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="2743201"/>
+          <a:ext cx="175846" cy="178777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>164557</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371601" y="4972050"/>
+          <a:ext cx="164556" cy="161192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3817327" y="505558"/>
+          <a:ext cx="180975" cy="178044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3817327" y="674077"/>
+          <a:ext cx="180974" cy="178043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3817327" y="842596"/>
+          <a:ext cx="183173" cy="183173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2439866" y="1194289"/>
+          <a:ext cx="175845" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2439865" y="1531327"/>
+          <a:ext cx="183173" cy="183173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2439865" y="1362808"/>
+          <a:ext cx="183173" cy="183173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2439866" y="1194289"/>
+          <a:ext cx="175845" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172861</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3815013" y="1203159"/>
+          <a:ext cx="172861" cy="170446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -834,10 +3001,1024 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="13" customFormat="1">
+      <c r="C3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
+      <c r="A9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="56.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -900,7 +4081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="244">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,18 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天气有雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记得带伞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比昨日降温超过5度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>温度骤降</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,7 +398,520 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他情况</t>
+    <t>w0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴转阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudy day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shower day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有阵雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷阵雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thunder shower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷阵雨并伴有冰雹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thunder shower hailstone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵雨冰雹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨夹雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨滂沱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中雨降临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heavy rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雨倾盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rainstorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雨来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有阵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雪飘过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪花纷飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heavy snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫天白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雪来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fog day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾气笼罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freezing rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻雨降临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙尘暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust storm day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙尘袭击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floating dust day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮尘飞扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudy night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fog night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚阵雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shower night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚阵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow shower night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚浮尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floating dust night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚沙尘暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust storm night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜明星稀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜空昏暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温最高XX度，请注意防暑!</t>
+  </si>
+  <si>
+    <t>温度骤降！请注意加衣保暖！</t>
+  </si>
+  <si>
+    <t>有强风，请尽量减少外出!</t>
+  </si>
+  <si>
+    <t>有超强风,强烈建议您不要外出!</t>
+  </si>
+  <si>
+    <t>今天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名</t>
+  </si>
+  <si>
+    <t>XX转XX，记得带伞哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度大于等于35°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日最低温度比昨日最低温度平均值降低5度以上</t>
+  </si>
+  <si>
+    <t>今日8~22点之间小雨以上</t>
+  </si>
+  <si>
+    <t>老条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6级别以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3~19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日最低温度比昨日最低温度平均值降低5度以上，且温度小于25°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A60042</t>
+  </si>
+  <si>
+    <t>#780082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#56005E</t>
+  </si>
+  <si>
+    <t>#75002F</t>
+  </si>
+  <si>
+    <t>#1BA602</t>
+  </si>
+  <si>
+    <t>#01A765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#018752</t>
+  </si>
+  <si>
+    <t>#016940</t>
+  </si>
+  <si>
+    <t>#158202</t>
+  </si>
+  <si>
+    <t>#0F5A01</t>
+  </si>
+  <si>
+    <t>#01A3E0</t>
+  </si>
+  <si>
+    <t>#015474</t>
+  </si>
+  <si>
+    <t>#3800A2</t>
+  </si>
+  <si>
+    <t>#003EE1</t>
+  </si>
+  <si>
+    <t>#4223ED</t>
+  </si>
+  <si>
+    <t>#555555</t>
+  </si>
+  <si>
+    <t>#01B4F8</t>
+  </si>
+  <si>
+    <t>#757575</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>#002B9B</t>
+  </si>
+  <si>
+    <t>#1A0048</t>
+  </si>
+  <si>
+    <t>#016287</t>
+  </si>
+  <si>
+    <t>#6C5200</t>
+  </si>
+  <si>
+    <t>#662E00</t>
+  </si>
+  <si>
+    <t>#666666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1EBD02</t>
+  </si>
+  <si>
+    <t>晚上有雨，记得带伞哦！</t>
+  </si>
+  <si>
+    <t>有高温警报，请注意防暑!</t>
+  </si>
+  <si>
+    <t>有空气污染，建议带口罩外出！</t>
+  </si>
+  <si>
+    <t>有空气污染，建议带口罩外出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm2.5中度污染以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(来自懒人天气）</t>
+  </si>
+  <si>
+    <t>新文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天XX的天气：XX转XX，XX°-XX°</t>
+  </si>
+  <si>
+    <t>小雨夹雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,518 +919,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fine day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴空万里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴转阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloudy day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气昏暗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shower day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶有阵雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷阵雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thunder shower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷阵雨并伴有冰雹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thunder shower hailstone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵雨冰雹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨夹雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rain snow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>light rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雨滂沱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中雨降临</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heavy rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大雨倾盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rainstorm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴雨来袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶有阵雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>light snow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雪飘过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle snow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪花纷飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heavy snow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫天白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snow storm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴雪来袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fog day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雾气笼罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freezing rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻雨降临</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙尘暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dust storm day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙尘袭击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮尘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floating dust day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮尘飞扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fine night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloudy night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fog night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚阵雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shower night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚阵雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snow shower night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚浮尘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floating dust night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚沙尘暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dust storm night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜明星稀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜空昏暗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气温最高XX度，请注意防暑!</t>
-  </si>
-  <si>
-    <t>温度骤降！请注意加衣保暖！</t>
-  </si>
-  <si>
-    <t>有强风，请尽量减少外出!</t>
-  </si>
-  <si>
-    <t>有超强风,强烈建议您不要外出!</t>
-  </si>
-  <si>
-    <t>今天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名</t>
-  </si>
-  <si>
-    <t>XX转XX，记得带伞哦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度大于等于35°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日最低温度比昨日最低温度平均值降低5度以上</t>
-  </si>
-  <si>
-    <t>今日8~22点之间小雨以上</t>
-  </si>
-  <si>
-    <t>老条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6级别以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8级以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W3~19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日最低温度比昨日最低温度平均值降低5度以上，且温度小于25°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ff6666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#A60042</t>
-  </si>
-  <si>
-    <t>#780082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#56005E</t>
-  </si>
-  <si>
-    <t>#75002F</t>
-  </si>
-  <si>
-    <t>#1BA602</t>
-  </si>
-  <si>
-    <t>#01A765</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#018752</t>
-  </si>
-  <si>
-    <t>#016940</t>
-  </si>
-  <si>
-    <t>#158202</t>
-  </si>
-  <si>
-    <t>#0F5A01</t>
-  </si>
-  <si>
-    <t>#01A3E0</t>
-  </si>
-  <si>
-    <t>#015474</t>
-  </si>
-  <si>
-    <t>#3800A2</t>
-  </si>
-  <si>
-    <t>#003EE1</t>
-  </si>
-  <si>
-    <t>#4223ED</t>
-  </si>
-  <si>
-    <t>#555555</t>
-  </si>
-  <si>
-    <t>#01B4F8</t>
-  </si>
-  <si>
-    <t>#757575</t>
-  </si>
-  <si>
-    <t>#000000</t>
-  </si>
-  <si>
-    <t>#002B9B</t>
-  </si>
-  <si>
-    <t>#1A0048</t>
-  </si>
-  <si>
-    <t>#016287</t>
-  </si>
-  <si>
-    <t>#6C5200</t>
-  </si>
-  <si>
-    <t>#662E00</t>
-  </si>
-  <si>
-    <t>#666666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1EBD02</t>
-  </si>
-  <si>
-    <t>晚上有雨，记得带伞哦！</t>
-  </si>
-  <si>
-    <t>有高温警报，请注意防暑!</t>
-  </si>
-  <si>
-    <t>有空气污染，建议带口罩外出！</t>
-  </si>
-  <si>
-    <t>有空气污染，建议带口罩外出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm2.5中度污染以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(来自懒人天气）</t>
+    <t>今日最高温度超过35度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日高温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无忧出行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴云蔽日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -991,7 +998,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,12 +1014,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,7 +1047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,12 +1085,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3003,15 +2998,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="18" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="8" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="9" customWidth="1"/>
     <col min="5" max="16384" width="9" style="8"/>
   </cols>
@@ -3034,424 +3029,425 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="13" customFormat="1">
-      <c r="C3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>98</v>
+    <row r="3" spans="1:4">
+      <c r="C3" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="8" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" s="8" t="s">
+      <c r="D7" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25">
+      <c r="A8" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>108</v>
+      <c r="D8" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25">
-      <c r="A10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="B36" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3480,79 +3476,79 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
         <v>188</v>
-      </c>
-      <c r="D3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" t="s">
         <v>189</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>196</v>
-      </c>
-      <c r="E4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3578,107 +3574,107 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3686,15 +3682,15 @@
         <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3702,14 +3698,14 @@
         <v>72</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3717,14 +3713,14 @@
         <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3732,10 +3728,10 @@
         <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3743,10 +3739,10 @@
         <v>75</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3754,10 +3750,10 @@
         <v>76</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3765,10 +3761,10 @@
         <v>77</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3776,10 +3772,10 @@
         <v>78</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3787,10 +3783,10 @@
         <v>79</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3798,21 +3794,21 @@
         <v>80</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3820,10 +3816,10 @@
         <v>81</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3831,21 +3827,21 @@
         <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3853,10 +3849,10 @@
         <v>83</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3864,10 +3860,10 @@
         <v>84</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3875,10 +3871,10 @@
         <v>85</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3886,10 +3882,10 @@
         <v>86</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3897,10 +3893,10 @@
         <v>87</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3908,10 +3904,10 @@
         <v>88</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3919,18 +3915,18 @@
         <v>89</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3942,69 +3938,75 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="34.25" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="3" max="4" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>235</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>236</v>
+      </c>
+      <c r="E2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="C4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="C5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="C7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="244">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,9 +752,6 @@
     <t>今日最低温度比昨日最低温度平均值降低5度以上</t>
   </si>
   <si>
-    <t>今日8~22点之间小雨以上</t>
-  </si>
-  <si>
     <t>老条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,10 +768,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W3~19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日最低温度比昨日最低温度平均值降低5度以上，且温度小于25°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -908,9 +901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天XX的天气：XX转XX，XX°-XX°</t>
-  </si>
-  <si>
     <t>小雨夹雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -931,11 +921,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无忧出行</t>
+    <t>天空晴朗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阴云蔽日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气文字中有雨字的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天XX的天气：XX转XX，记得带伞哦！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -984,6 +986,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -991,7 +994,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1047,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,10 +1084,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2812,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2998,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3031,10 +3037,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3063,8 +3069,8 @@
       <c r="C7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>242</v>
+      <c r="D7" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25">
@@ -3077,7 +3083,7 @@
       <c r="C8" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3091,119 +3097,119 @@
       <c r="C9" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="D9" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="11" customFormat="1">
+      <c r="A10" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4" s="11" customFormat="1">
+      <c r="A11" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A12" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:4" s="11" customFormat="1">
+      <c r="A13" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="D13" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="11" customFormat="1">
+      <c r="A14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:4" s="11" customFormat="1">
+      <c r="A15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" s="11" customFormat="1">
+      <c r="A16" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:4" s="11" customFormat="1">
+      <c r="A17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3327,7 +3333,7 @@
         <v>159</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3354,7 +3360,7 @@
       <c r="C28" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3368,7 +3374,7 @@
       <c r="C29" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3388,7 +3394,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>170</v>
@@ -3447,7 +3453,7 @@
         <v>178</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3461,8 +3467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3485,10 +3491,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3496,16 +3502,13 @@
         <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
         <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3524,7 +3527,7 @@
         <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3532,7 +3535,7 @@
         <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3540,15 +3543,15 @@
         <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3561,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3574,13 +3577,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3591,7 +3594,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3602,7 +3605,7 @@
         <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3614,10 +3617,10 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3629,10 +3632,10 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3644,22 +3647,22 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3671,10 +3674,10 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3686,11 +3689,11 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3702,10 +3705,10 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3717,10 +3720,10 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3731,7 +3734,7 @@
         <v>132</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3742,7 +3745,7 @@
         <v>135</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3753,7 +3756,7 @@
         <v>137</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3764,7 +3767,7 @@
         <v>140</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3775,7 +3778,7 @@
         <v>143</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3786,7 +3789,7 @@
         <v>146</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3797,7 +3800,7 @@
         <v>149</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3808,7 +3811,7 @@
         <v>153</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3819,7 +3822,7 @@
         <v>156</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3830,7 +3833,7 @@
         <v>159</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3841,7 +3844,7 @@
         <v>161</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3852,7 +3855,7 @@
         <v>164</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3863,7 +3866,7 @@
         <v>166</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3874,7 +3877,7 @@
         <v>168</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3885,7 +3888,7 @@
         <v>170</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3896,7 +3899,7 @@
         <v>172</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3907,7 +3910,7 @@
         <v>174</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3918,7 +3921,7 @@
         <v>176</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3926,7 +3929,7 @@
         <v>178</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3941,7 +3944,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3958,13 +3961,13 @@
         <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3972,21 +3975,21 @@
         <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4006,7 +4009,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="C7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -2818,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3004,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A17"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3297,17 +3297,17 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:4" s="11" customFormat="1">
+      <c r="A24" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3392,17 +3392,17 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:4" s="11" customFormat="1">
+      <c r="A31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3564,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="239">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,9 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晴转多云</t>
-  </si>
-  <si>
     <t>条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,14 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夜明星稀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜空昏暗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>气温最高XX度，请注意防暑!</t>
   </si>
   <si>
@@ -918,14 +907,6 @@
   </si>
   <si>
     <t>台风来袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天空晴朗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴云蔽日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3004,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3021,26 +3002,26 @@
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="C2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3048,113 +3029,107 @@
         <v>45</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>239</v>
-      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" s="11" customFormat="1">
       <c r="A10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="11" customFormat="1">
       <c r="A11" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="11" customFormat="1" ht="14.25">
       <c r="A12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="11" customFormat="1">
       <c r="A13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="11" customFormat="1">
@@ -3162,13 +3137,13 @@
         <v>71</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="11" customFormat="1">
@@ -3176,13 +3151,13 @@
         <v>72</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="11" customFormat="1">
@@ -3190,13 +3165,13 @@
         <v>73</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="11" customFormat="1">
@@ -3204,13 +3179,13 @@
         <v>74</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3218,13 +3193,13 @@
         <v>75</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3232,13 +3207,13 @@
         <v>76</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3246,13 +3221,13 @@
         <v>77</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3260,13 +3235,13 @@
         <v>78</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3274,13 +3249,13 @@
         <v>79</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3288,27 +3263,27 @@
         <v>80</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="11" customFormat="1">
       <c r="A24" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3316,13 +3291,13 @@
         <v>81</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3330,24 +3305,24 @@
         <v>82</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3355,55 +3330,51 @@
         <v>83</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>180</v>
-      </c>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="11" customFormat="1">
       <c r="A31" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>171</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3411,10 +3382,10 @@
         <v>87</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>91</v>
@@ -3425,13 +3396,13 @@
         <v>88</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="D33" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3439,21 +3410,21 @@
         <v>89</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="D34" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="B36" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3482,76 +3453,76 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3564,7 +3535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -3577,107 +3548,107 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3685,15 +3656,15 @@
         <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3701,14 +3672,14 @@
         <v>72</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3716,14 +3687,14 @@
         <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3731,10 +3702,10 @@
         <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3742,10 +3713,10 @@
         <v>75</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3753,10 +3724,10 @@
         <v>76</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3764,10 +3735,10 @@
         <v>77</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3775,10 +3746,10 @@
         <v>78</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3786,10 +3757,10 @@
         <v>79</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3797,21 +3768,21 @@
         <v>80</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3819,10 +3790,10 @@
         <v>81</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3830,21 +3801,21 @@
         <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3852,10 +3823,10 @@
         <v>83</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3863,10 +3834,10 @@
         <v>84</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3874,10 +3845,10 @@
         <v>85</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3885,10 +3856,10 @@
         <v>86</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3896,10 +3867,10 @@
         <v>87</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3907,10 +3878,10 @@
         <v>88</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3918,18 +3889,18 @@
         <v>89</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3955,61 +3926,61 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="C7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="240">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -919,6 +919,10 @@
   </si>
   <si>
     <t>今天XX的天气：XX转XX，记得带伞哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天XX的天气：XX转XX，XX°-XX°！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2985,7 +2989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D28" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
@@ -3912,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3981,6 +3985,11 @@
     <row r="7" spans="1:5">
       <c r="C7" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="238">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -803,9 +803,6 @@
     <t>#016940</t>
   </si>
   <si>
-    <t>#158202</t>
-  </si>
-  <si>
     <t>#0F5A01</t>
   </si>
   <si>
@@ -852,10 +849,6 @@
   </si>
   <si>
     <t>#666666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1092,44 +1085,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2439866" y="505559"/>
-          <a:ext cx="180974" cy="178043"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1148,7 +1103,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1186,7 +1141,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1207,82 +1162,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="857250"/>
-          <a:ext cx="180975" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>183173</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="685800"/>
-          <a:ext cx="183173" cy="186104"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1300,7 +1179,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1321,158 +1200,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>183173</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="1543050"/>
-          <a:ext cx="183173" cy="186104"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>183173</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2439865" y="1362808"/>
-          <a:ext cx="183173" cy="183173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>175846</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371601" y="1200151"/>
-          <a:ext cx="175845" cy="178776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>175847</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371601" y="1714501"/>
-          <a:ext cx="175846" cy="178776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1490,7 +1217,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1528,7 +1255,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1566,7 +1293,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1604,7 +1331,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1642,7 +1369,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1680,7 +1407,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1718,7 +1445,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1756,7 +1483,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1794,7 +1521,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1832,7 +1559,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1870,7 +1597,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1908,7 +1635,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1946,7 +1673,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1984,7 +1711,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2022,7 +1749,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2049,8 +1776,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>168519</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2060,7 +1787,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2098,7 +1825,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2136,7 +1863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2174,7 +1901,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2202,13 +1929,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2221,7 +1948,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2240,13 +1967,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
@@ -2259,7 +1986,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2278,13 +2005,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>183173</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
@@ -2297,7 +2024,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2316,34 +2043,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>175846</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPr id="39" name="图片 38"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2439866" y="1194289"/>
-          <a:ext cx="175845" cy="175846"/>
+          <a:off x="3803432" y="1379484"/>
+          <a:ext cx="175845" cy="178119"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2354,34 +2081,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>183173</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPr id="40" name="图片 39"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2439865" y="1531327"/>
-          <a:ext cx="183173" cy="183173"/>
+          <a:off x="3803431" y="1721069"/>
+          <a:ext cx="183173" cy="185447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2392,34 +2119,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>183173</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPr id="41" name="图片 40"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2439865" y="1362808"/>
-          <a:ext cx="183173" cy="183173"/>
+          <a:off x="3803431" y="1550276"/>
+          <a:ext cx="183173" cy="185447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2430,34 +2157,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>175846</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPr id="42" name="图片 41"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2439866" y="1194289"/>
-          <a:ext cx="175845" cy="175846"/>
+          <a:off x="3803432" y="1379484"/>
+          <a:ext cx="175845" cy="178119"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2468,26 +2195,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>172861</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPr id="43" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2495,8 +2222,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3815013" y="1203159"/>
-          <a:ext cx="172861" cy="170446"/>
+          <a:off x="3803431" y="1208691"/>
+          <a:ext cx="172861" cy="170792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3022,10 +2749,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3133,7 +2860,7 @@
         <v>121</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="11" customFormat="1">
@@ -3312,7 +3039,7 @@
         <v>158</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3369,7 +3096,7 @@
     </row>
     <row r="31" spans="1:4" s="11" customFormat="1">
       <c r="A31" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>169</v>
@@ -3428,7 +3155,7 @@
         <v>177</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3483,7 +3210,7 @@
         <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3523,10 +3250,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3537,10 +3264,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3550,18 +3277,15 @@
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
+    <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -3572,7 +3296,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
@@ -3583,52 +3307,43 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -3640,68 +3355,55 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
@@ -3709,10 +3411,10 @@
         <v>131</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>75</v>
       </c>
@@ -3720,10 +3422,10 @@
         <v>134</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
@@ -3731,10 +3433,10 @@
         <v>136</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>77</v>
       </c>
@@ -3742,10 +3444,10 @@
         <v>139</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
         <v>78</v>
       </c>
@@ -3753,7 +3455,7 @@
         <v>142</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3764,7 +3466,7 @@
         <v>145</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3775,7 +3477,7 @@
         <v>148</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3786,7 +3488,7 @@
         <v>152</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3797,7 +3499,7 @@
         <v>155</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3808,7 +3510,7 @@
         <v>158</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3819,7 +3521,7 @@
         <v>160</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3830,7 +3532,7 @@
         <v>163</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3841,7 +3543,7 @@
         <v>165</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3852,7 +3554,7 @@
         <v>167</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3874,7 +3576,7 @@
         <v>171</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3885,7 +3587,7 @@
         <v>173</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3896,7 +3598,7 @@
         <v>175</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3904,7 +3606,7 @@
         <v>177</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3918,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3936,13 +3638,13 @@
         <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3953,18 +3655,18 @@
         <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3984,12 +3686,12 @@
     </row>
     <row r="7" spans="1:5">
       <c r="C7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -915,7 +915,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天XX的天气：XX转XX，XX°-XX°！</t>
+    <t>今天城市名:XX转XX,XX°-XX°,空气 良,风力X级.(来自懒人天气）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3266,7 +3266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3618,79 +3618,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="4" width="34.25" customWidth="1"/>
+    <col min="1" max="1" width="62.75" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="63.875" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3702,10 +3645,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A10" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3714,7 +3657,7 @@
     <col min="2" max="2" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -3722,7 +3665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3730,7 +3673,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3738,7 +3681,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -3746,7 +3689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -3754,12 +3697,71 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -915,7 +915,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天城市名:XX转XX,XX°-XX°,空气 良,风力X级.(来自懒人天气）</t>
+    <t>当前城市名:XX,XX°-XX°,空气 良,风力X级.(来自懒人天气）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3620,9 +3620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -915,7 +915,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前城市名:XX,XX°-XX°,空气 良,风力X级.(来自懒人天气）</t>
+    <t>当前城市名:XX,XX°-XX°,空气 良,风力X级.（来自懒人天气）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -915,7 +915,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前城市名:XX,XX°-XX°,空气 良,风力X级.（来自懒人天气）</t>
+    <t>当前城市名:XX,XX°,空气 良,风力X级.（来自懒人天气）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3620,7 +3620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
     <sheet name="大字" sheetId="4" r:id="rId2"/>
-    <sheet name="提醒" sheetId="5" r:id="rId3"/>
-    <sheet name="背景色" sheetId="6" r:id="rId4"/>
-    <sheet name="分享文字" sheetId="7" r:id="rId5"/>
-    <sheet name="backup" sheetId="2" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="安卓提醒" sheetId="5" r:id="rId3"/>
+    <sheet name="ios提醒" sheetId="8" r:id="rId4"/>
+    <sheet name="背景色" sheetId="6" r:id="rId5"/>
+    <sheet name="分享文字" sheetId="7" r:id="rId6"/>
+    <sheet name="backup" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="240">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,6 +917,14 @@
   </si>
   <si>
     <t>当前城市名:XX,XX°,空气 良,风力X级.（来自懒人天气）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度骤降！请注意加衣保暖！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX转XX，建议您带伞出门！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3169,8 +3178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3263,6 +3272,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="56.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1">
+      <c r="C6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -3616,11 +3722,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3643,7 +3749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -3770,7 +3876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
     <sheet name="大字" sheetId="4" r:id="rId2"/>
-    <sheet name="安卓提醒" sheetId="5" r:id="rId3"/>
-    <sheet name="ios提醒" sheetId="8" r:id="rId4"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId3"/>
+    <sheet name="提醒ios" sheetId="5" r:id="rId4"/>
     <sheet name="背景色" sheetId="6" r:id="rId5"/>
     <sheet name="分享文字" sheetId="7" r:id="rId6"/>
     <sheet name="backup" sheetId="2" r:id="rId7"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="257">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>偶有阵雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,71 +492,497 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中雨降临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heavy rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雨倾盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rainstorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雨来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heavy snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雪来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fog day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾气笼罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freezing rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻雨降临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙尘暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust storm day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙尘袭击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floating dust day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮尘飞扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudy night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fog night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚阵雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shower night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚阵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow shower night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚浮尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floating dust night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚沙尘暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust storm night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温最高XX度，请注意防暑!</t>
+  </si>
+  <si>
+    <t>温度骤降！请注意加衣保暖！</t>
+  </si>
+  <si>
+    <t>有强风，请尽量减少外出!</t>
+  </si>
+  <si>
+    <t>有超强风,强烈建议您不要外出!</t>
+  </si>
+  <si>
+    <t>今天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名</t>
+  </si>
+  <si>
+    <t>XX转XX，记得带伞哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度大于等于35°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6级别以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A60042</t>
+  </si>
+  <si>
+    <t>#780082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#56005E</t>
+  </si>
+  <si>
+    <t>#75002F</t>
+  </si>
+  <si>
+    <t>#1BA602</t>
+  </si>
+  <si>
+    <t>#01A765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#018752</t>
+  </si>
+  <si>
+    <t>#016940</t>
+  </si>
+  <si>
+    <t>#0F5A01</t>
+  </si>
+  <si>
+    <t>#01A3E0</t>
+  </si>
+  <si>
+    <t>#015474</t>
+  </si>
+  <si>
+    <t>#3800A2</t>
+  </si>
+  <si>
+    <t>#003EE1</t>
+  </si>
+  <si>
+    <t>#4223ED</t>
+  </si>
+  <si>
+    <t>#555555</t>
+  </si>
+  <si>
+    <t>#01B4F8</t>
+  </si>
+  <si>
+    <t>#757575</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>#002B9B</t>
+  </si>
+  <si>
+    <t>#1A0048</t>
+  </si>
+  <si>
+    <t>#016287</t>
+  </si>
+  <si>
+    <t>#6C5200</t>
+  </si>
+  <si>
+    <t>#662E00</t>
+  </si>
+  <si>
+    <t>#666666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1EBD02</t>
+  </si>
+  <si>
+    <t>晚上有雨，记得带伞哦！</t>
+  </si>
+  <si>
+    <t>有高温警报，请注意防暑!</t>
+  </si>
+  <si>
+    <t>有空气污染，建议带口罩外出！</t>
+  </si>
+  <si>
+    <t>老文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(来自懒人天气）</t>
+  </si>
+  <si>
+    <t>新文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨夹雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无忧出行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日最高温度超过35度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日高温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气文字中有雨字的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天XX的天气：XX转XX，记得带伞哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前城市名:XX,XX°,空气 良,风力X级.（来自懒人天气）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有沙尘暴，请尽量减少外出！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有浮尘污染，对请尽量减少外出！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有雾，驾车出行要小心哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w18，w32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w20，w36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w29，w35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日最低温度比昨日最低温度平均值降低5度以上,且温度小于等于15度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XX转XX，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议您带伞出行！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字中有雨字或雪字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文字和条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象局刚刚发布XXXXX，请注意提前预防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气XXXX，建议您减少外出或戴口罩出行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻度污染及以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小雨滂沱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中雨降临</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heavy rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大雨倾盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rainstorm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴雨来袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶有阵雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>light snow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雪飘过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle snow</t>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫天白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有降雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有降雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零星小雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -568,371 +990,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heavy snow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫天白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snow storm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴雪来袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fog day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雾气笼罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freezing rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻雨降临</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙尘暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dust storm day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙尘袭击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮尘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floating dust day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮尘飞扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fine night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloudy night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fog night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚阵雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shower night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚阵雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snow shower night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚浮尘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floating dust night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚沙尘暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dust storm night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气温最高XX度，请注意防暑!</t>
-  </si>
-  <si>
-    <t>温度骤降！请注意加衣保暖！</t>
-  </si>
-  <si>
-    <t>有强风，请尽量减少外出!</t>
-  </si>
-  <si>
-    <t>有超强风,强烈建议您不要外出!</t>
-  </si>
-  <si>
-    <t>今天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名</t>
-  </si>
-  <si>
-    <t>XX转XX，记得带伞哦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度大于等于35°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日最低温度比昨日最低温度平均值降低5度以上</t>
-  </si>
-  <si>
-    <t>老条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6级别以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8级以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日最低温度比昨日最低温度平均值降低5度以上，且温度小于25°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ff6666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#A60042</t>
-  </si>
-  <si>
-    <t>#780082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#56005E</t>
-  </si>
-  <si>
-    <t>#75002F</t>
-  </si>
-  <si>
-    <t>#1BA602</t>
-  </si>
-  <si>
-    <t>#01A765</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#018752</t>
-  </si>
-  <si>
-    <t>#016940</t>
-  </si>
-  <si>
-    <t>#0F5A01</t>
-  </si>
-  <si>
-    <t>#01A3E0</t>
-  </si>
-  <si>
-    <t>#015474</t>
-  </si>
-  <si>
-    <t>#3800A2</t>
-  </si>
-  <si>
-    <t>#003EE1</t>
-  </si>
-  <si>
-    <t>#4223ED</t>
-  </si>
-  <si>
-    <t>#555555</t>
-  </si>
-  <si>
-    <t>#01B4F8</t>
-  </si>
-  <si>
-    <t>#757575</t>
-  </si>
-  <si>
-    <t>#000000</t>
-  </si>
-  <si>
-    <t>#002B9B</t>
-  </si>
-  <si>
-    <t>#1A0048</t>
-  </si>
-  <si>
-    <t>#016287</t>
-  </si>
-  <si>
-    <t>#6C5200</t>
-  </si>
-  <si>
-    <t>#662E00</t>
-  </si>
-  <si>
-    <t>#666666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1EBD02</t>
-  </si>
-  <si>
-    <t>晚上有雨，记得带伞哦！</t>
-  </si>
-  <si>
-    <t>有高温警报，请注意防暑!</t>
-  </si>
-  <si>
-    <t>有空气污染，建议带口罩外出！</t>
-  </si>
-  <si>
-    <t>有空气污染，建议带口罩外出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm2.5中度污染以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(来自懒人天气）</t>
-  </si>
-  <si>
-    <t>新文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雨夹雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无忧出行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日最高温度超过35度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日高温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台风来袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气文字中有雨字的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天XX的天气：XX转XX，记得带伞哦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前城市名:XX,XX°,空气 良,风力X级.（来自懒人天气）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度骤降！请注意加衣保暖！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX转XX，建议您带伞出门！</t>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叹号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,8 +1069,16 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,6 +1094,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,7 +1133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,10 +1170,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,6 +1194,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2253,7 +2366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2327,6 +2440,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2361,6 +2475,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2536,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2722,11 +2837,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D29"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2738,433 +2853,475 @@
     <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:5">
       <c r="C3" s="8" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="C4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="9" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="A8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25">
+      <c r="A9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" s="14" customFormat="1">
+      <c r="A10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" s="11" customFormat="1">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:5" s="14" customFormat="1">
+      <c r="A11" s="14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="11" customFormat="1">
-      <c r="A11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="14.25">
+      <c r="A12" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="11" customFormat="1" ht="14.25">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:5" s="14" customFormat="1">
+      <c r="A13" s="14" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="11" customFormat="1">
-      <c r="A13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="14" customFormat="1">
+      <c r="A14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="11" customFormat="1">
-      <c r="A14" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="14" customFormat="1">
+      <c r="A15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="C15" s="14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="11" customFormat="1">
-      <c r="A15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="D15" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="11" t="s">
+    </row>
+    <row r="16" spans="1:5" s="14" customFormat="1">
+      <c r="A16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="C16" s="14" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="11" customFormat="1">
-      <c r="A16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="D16" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="11" t="s">
+    </row>
+    <row r="17" spans="1:5" s="14" customFormat="1">
+      <c r="A17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="C17" s="14" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="11" customFormat="1">
-      <c r="A17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="D17" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="11" t="s">
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1">
+      <c r="A18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="C18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="11" customFormat="1">
+      <c r="A19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1">
+      <c r="A20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="C20" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="11" customFormat="1">
+      <c r="A21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="D21" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="11" customFormat="1">
+      <c r="A22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C22" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="E22" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1">
+      <c r="A23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C23" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="E23" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1">
+      <c r="A24" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="B24" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="C24" s="14" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="D24" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="8" t="s">
+    </row>
+    <row r="25" spans="1:5" s="11" customFormat="1">
+      <c r="A25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="C25" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="11" customFormat="1">
-      <c r="A24" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="E25" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="11" customFormat="1">
+      <c r="A26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="11" customFormat="1">
+      <c r="A27" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="B27" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="C27" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E27" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="C28" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C29" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" s="11" customFormat="1">
+      <c r="A30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="D30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="14" customFormat="1">
+      <c r="A31" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C31" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="D31" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="11" customFormat="1">
+      <c r="A32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C32" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="D32" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="11" customFormat="1">
+      <c r="A33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C33" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="11" customFormat="1">
-      <c r="A31" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="D33" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="11" customFormat="1">
+      <c r="A34" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="D34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="B36" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="D36" s="9" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3175,11 +3332,149 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="65" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="D3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3187,179 +3482,67 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="43.875" customWidth="1"/>
-    <col min="5" max="5" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="62.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="12" customFormat="1">
+      <c r="C5" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="12" customFormat="1">
+      <c r="C6" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="B2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="43.875" customWidth="1"/>
-    <col min="5" max="5" width="56.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1">
-      <c r="C6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3385,92 +3568,92 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3478,11 +3661,11 @@
         <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3490,11 +3673,11 @@
         <v>72</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3502,11 +3685,11 @@
         <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3514,10 +3697,10 @@
         <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3525,10 +3708,10 @@
         <v>75</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3536,10 +3719,10 @@
         <v>76</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3547,10 +3730,10 @@
         <v>77</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3558,10 +3741,10 @@
         <v>78</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3569,10 +3752,10 @@
         <v>79</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3580,21 +3763,21 @@
         <v>80</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3602,10 +3785,10 @@
         <v>81</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3613,21 +3796,21 @@
         <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3635,10 +3818,10 @@
         <v>83</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3646,10 +3829,10 @@
         <v>84</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3657,10 +3840,10 @@
         <v>85</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3668,10 +3851,10 @@
         <v>86</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3679,10 +3862,10 @@
         <v>87</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3690,10 +3873,10 @@
         <v>88</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3701,18 +3884,18 @@
         <v>89</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3723,10 +3906,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3740,7 +3923,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3750,11 +3933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G10"/>
+      <selection activeCell="A18" sqref="A18:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3813,61 +3996,85 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
-        <v>223</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3877,7 +4084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -3335,8 +3335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3909,7 +3909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>衣</t>
+    <t>温度计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2840,7 +2840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -3335,8 +3335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="259">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中度污染以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空气污染</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -918,6 +914,70 @@
   </si>
   <si>
     <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字中有雨字或雪字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文字和条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象局刚刚发布XXXXX，请注意提前预防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨滂沱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫天白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有降雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有降雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零星小雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪花纷飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叹号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -938,15 +998,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文字中有雨字或雪字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改文字和条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气象局刚刚发布XXXXX，请注意提前预防</t>
+    <t>气温最高XX度，请注意防暑!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -954,59 +1006,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轻度污染及以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雨滂沱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫天白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶有降雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶有降雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零星小雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪花纷飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叹号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度计</t>
+    <t>温度骤降！请注意加衣保暖！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度污染以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度污染及以上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2840,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2863,7 +2871,7 @@
         <v>92</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2876,10 +2884,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="C3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2892,102 +2900,102 @@
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>106</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:5" s="14" customFormat="1">
       <c r="A10" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="14" customFormat="1">
       <c r="A11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="14" customFormat="1" ht="14.25">
       <c r="A12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="14" customFormat="1">
       <c r="A13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="14" customFormat="1">
@@ -2995,13 +3003,13 @@
         <v>71</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="14" customFormat="1">
@@ -3009,13 +3017,13 @@
         <v>72</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="14" customFormat="1">
@@ -3023,13 +3031,13 @@
         <v>73</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="14" customFormat="1">
@@ -3037,13 +3045,13 @@
         <v>74</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1">
@@ -3051,16 +3059,16 @@
         <v>75</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="11" customFormat="1">
@@ -3068,16 +3076,16 @@
         <v>76</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1">
@@ -3085,16 +3093,16 @@
         <v>77</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="11" customFormat="1">
@@ -3102,16 +3110,16 @@
         <v>78</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="11" customFormat="1">
@@ -3119,16 +3127,16 @@
         <v>79</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="11" customFormat="1">
@@ -3136,30 +3144,30 @@
         <v>80</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="14" customFormat="1">
       <c r="A24" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="D24" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="11" customFormat="1">
@@ -3167,16 +3175,16 @@
         <v>81</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="11" customFormat="1">
@@ -3184,30 +3192,30 @@
         <v>82</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="11" customFormat="1">
       <c r="A27" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3215,10 +3223,10 @@
         <v>83</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="D28" s="14"/>
     </row>
@@ -3227,10 +3235,10 @@
         <v>84</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="D29" s="14"/>
     </row>
@@ -3239,30 +3247,30 @@
         <v>85</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="D30" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="14" customFormat="1">
       <c r="A31" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>164</v>
-      </c>
       <c r="D31" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1">
@@ -3270,16 +3278,16 @@
         <v>87</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="11" customFormat="1">
@@ -3287,16 +3295,16 @@
         <v>88</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>168</v>
-      </c>
       <c r="D33" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="11" customFormat="1">
@@ -3304,24 +3312,24 @@
         <v>89</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3335,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3352,114 +3360,114 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="13" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +3482,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3487,62 +3495,62 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="12" customFormat="1">
       <c r="C5" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="12" customFormat="1">
       <c r="C6" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3568,92 +3576,92 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3661,11 +3669,11 @@
         <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3673,11 +3681,11 @@
         <v>72</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3685,11 +3693,11 @@
         <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3697,10 +3705,10 @@
         <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3708,10 +3716,10 @@
         <v>75</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3719,10 +3727,10 @@
         <v>76</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3730,10 +3738,10 @@
         <v>77</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3741,10 +3749,10 @@
         <v>78</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3752,10 +3760,10 @@
         <v>79</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3763,21 +3771,21 @@
         <v>80</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3785,10 +3793,10 @@
         <v>81</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3796,21 +3804,21 @@
         <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3818,10 +3826,10 @@
         <v>83</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3829,10 +3837,10 @@
         <v>84</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3840,10 +3848,10 @@
         <v>85</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3851,10 +3859,10 @@
         <v>86</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3862,10 +3870,10 @@
         <v>87</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3873,10 +3881,10 @@
         <v>88</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3884,18 +3892,18 @@
         <v>89</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3923,7 +3931,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3996,85 +4004,85 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紫外线 强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>紫外线 X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -926,10 +922,6 @@
   </si>
   <si>
     <t>气象局刚刚发布XXXXX，请注意提前预防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雨滂沱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1015,6 +1007,14 @@
   </si>
   <si>
     <t>中度污染及以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外线 强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细雨绵绵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2662,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2686,24 +2686,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2711,7 +2711,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -2722,7 +2722,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2733,7 +2733,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -2744,7 +2744,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2755,7 +2755,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -2763,24 +2763,24 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2788,10 +2788,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2799,10 +2799,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2810,10 +2810,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2821,10 +2821,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2832,10 +2832,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2848,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2865,471 +2865,471 @@
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="C2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:5" s="14" customFormat="1">
       <c r="A10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="14" customFormat="1">
       <c r="A11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="14" customFormat="1" ht="14.25">
       <c r="A12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="14" customFormat="1">
       <c r="A13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="14" customFormat="1">
       <c r="A14" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="14" customFormat="1">
       <c r="A15" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="14" customFormat="1">
       <c r="A16" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="14" customFormat="1">
       <c r="A17" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="11" customFormat="1">
       <c r="A19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1">
       <c r="A20" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="11" customFormat="1">
       <c r="A21" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="11" customFormat="1">
       <c r="A22" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="11" customFormat="1">
       <c r="A23" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="14" customFormat="1">
       <c r="A24" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="D24" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="11" customFormat="1">
       <c r="A25" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="11" customFormat="1">
       <c r="A26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="11" customFormat="1">
       <c r="A27" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>157</v>
       </c>
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1">
       <c r="A30" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>161</v>
-      </c>
       <c r="D30" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="14" customFormat="1">
       <c r="A31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>163</v>
-      </c>
       <c r="D31" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1">
       <c r="A32" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="11" customFormat="1">
       <c r="A33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="D33" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="11" customFormat="1">
       <c r="A34" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3360,114 +3360,114 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3495,62 +3495,62 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="12" customFormat="1">
       <c r="C5" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="12" customFormat="1">
       <c r="C6" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3576,334 +3576,334 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3931,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3956,133 +3956,133 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4103,7 +4103,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4136,46 +4136,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="269">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,10 +930,6 @@
   </si>
   <si>
     <t>漫天白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1015,6 +1011,49 @@
   </si>
   <si>
     <t>细雨绵绵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴空万里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴云密布</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴转多云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月朗星稀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜间多云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,20 +1109,18 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1141,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,19 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1187,13 +1212,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2824,7 +2852,7 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2849,493 +2877,548 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18" style="8" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="4.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="C5" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25">
-      <c r="A8" s="14" t="s">
+      <c r="D7" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="14.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" s="14" customFormat="1">
-      <c r="A10" s="14" t="s">
+      <c r="D9" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="14" customFormat="1">
-      <c r="A11" s="14" t="s">
+      <c r="E10" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" ht="14.25">
-      <c r="A12" s="14" t="s">
+      <c r="E11" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="14" customFormat="1">
-      <c r="A13" s="14" t="s">
+      <c r="E12" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="14" customFormat="1">
-      <c r="A14" s="14" t="s">
+      <c r="E13" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="14" customFormat="1">
-      <c r="A15" s="14" t="s">
+      <c r="D14" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="14" customFormat="1">
-      <c r="A16" s="14" t="s">
+      <c r="E15" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="14" customFormat="1">
-      <c r="A17" s="14" t="s">
+      <c r="E16" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="11" customFormat="1">
-      <c r="A18" s="11" t="s">
+      <c r="E17" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E19" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="11" customFormat="1">
-      <c r="A19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="11" customFormat="1">
-      <c r="A20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="11" customFormat="1">
-      <c r="A21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="11" customFormat="1">
-      <c r="A22" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="11" customFormat="1">
-      <c r="A23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="14" customFormat="1">
-      <c r="A24" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="11" customFormat="1">
-      <c r="A25" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="E32" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="11" customFormat="1">
-      <c r="A26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="11" customFormat="1">
-      <c r="A27" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" s="11" customFormat="1">
-      <c r="A30" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="14" customFormat="1">
-      <c r="A31" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="11" customFormat="1">
-      <c r="A32" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="11" customFormat="1">
-      <c r="A33" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="11" customFormat="1">
-      <c r="A34" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>241</v>
+      <c r="E34" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3360,7 +3443,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>174</v>
@@ -3380,7 +3463,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>174</v>
@@ -3389,7 +3472,7 @@
         <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>236</v>
@@ -3399,10 +3482,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="D3" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>177</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -3411,20 +3494,20 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>179</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -3432,10 +3515,10 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>180</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -3444,13 +3527,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>235</v>
@@ -3458,7 +3541,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>238</v>
@@ -3537,19 +3620,19 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="12" customFormat="1">
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:4" s="8" customFormat="1">
+      <c r="C5" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="12" customFormat="1">
-      <c r="C6" s="12" t="s">
+    <row r="6" spans="1:4" s="8" customFormat="1">
+      <c r="C6" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3583,10 +3666,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3594,10 +3677,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3605,10 +3688,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C4" s="3"/>
@@ -3617,10 +3700,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C5" s="3"/>
@@ -3629,10 +3712,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="3"/>
@@ -3641,10 +3724,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="4"/>
@@ -3653,10 +3736,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C8" s="3"/>
@@ -3665,10 +3748,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C9" s="3"/>
@@ -3677,10 +3760,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="3"/>
@@ -3689,10 +3772,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C11" s="3"/>
@@ -3701,10 +3784,10 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -3712,10 +3795,10 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3723,10 +3806,10 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3734,10 +3817,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3745,10 +3828,10 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3756,10 +3839,10 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3767,10 +3850,10 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>140</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3778,10 +3861,10 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3789,10 +3872,10 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>147</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -3800,10 +3883,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -3811,10 +3894,10 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3822,10 +3905,10 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>155</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -3833,10 +3916,10 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>157</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -3844,10 +3927,10 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3855,10 +3938,10 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>161</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -3866,10 +3949,10 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>163</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -3877,10 +3960,10 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -3888,10 +3971,10 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>167</v>
       </c>
       <c r="D29" s="2" t="s">

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -921,10 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>气象局刚刚发布XXXXX，请注意提前预防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1054,6 +1050,10 @@
   </si>
   <si>
     <t>夜间多云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用moji的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2852,7 +2852,7 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2876,7 +2876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -2899,7 +2899,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2928,7 +2928,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>95</v>
@@ -2945,10 +2945,10 @@
         <v>98</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2962,10 +2962,10 @@
         <v>101</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25">
@@ -2979,10 +2979,10 @@
         <v>104</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2999,7 +2999,7 @@
         <v>108</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3016,7 +3016,7 @@
         <v>108</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
@@ -3033,7 +3033,7 @@
         <v>115</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3050,7 +3050,7 @@
         <v>216</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3064,10 +3064,10 @@
         <v>120</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3084,7 +3084,7 @@
         <v>123</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3101,7 +3101,7 @@
         <v>126</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3118,7 +3118,7 @@
         <v>129</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3132,10 +3132,10 @@
         <v>89</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3149,10 +3149,10 @@
         <v>132</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3166,10 +3166,10 @@
         <v>134</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3183,10 +3183,10 @@
         <v>136</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3203,7 +3203,7 @@
         <v>139</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3220,7 +3220,7 @@
         <v>142</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3237,7 +3237,7 @@
         <v>146</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3254,7 +3254,7 @@
         <v>149</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3268,7 +3268,7 @@
         <v>220</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3285,7 +3285,7 @@
         <v>154</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3299,10 +3299,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3316,10 +3316,10 @@
         <v>158</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3336,7 +3336,7 @@
         <v>142</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3353,7 +3353,7 @@
         <v>108</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3367,10 +3367,10 @@
         <v>164</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3387,7 +3387,7 @@
         <v>154</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3404,7 +3404,7 @@
         <v>149</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3426,7 +3426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3443,7 +3443,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>174</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>174</v>
@@ -3472,7 +3472,7 @@
         <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>236</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>177</v>
@@ -3494,10 +3494,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>232</v>
@@ -3527,13 +3527,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>235</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>228</v>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -2876,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3426,7 +3426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3646,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="天气数据" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1054,6 +1054,14 @@
   </si>
   <si>
     <t>使用moji的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重污染</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2688,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2789,45 +2797,45 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -2835,34 +2843,45 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>255</v>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2876,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -267,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>风力 7~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,6 +1058,10 @@
   </si>
   <si>
     <t>严重污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200~299</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2699,7 +2699,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2725,10 +2725,10 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2791,7 +2791,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -2802,10 +2802,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" t="s">
         <v>269</v>
-      </c>
-      <c r="C11" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2816,18 +2816,18 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2835,7 +2835,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -2846,7 +2846,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -2857,7 +2857,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -2871,7 +2871,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2912,29 +2912,29 @@
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2942,496 +2942,496 @@
         <v>44</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
       <c r="A12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E15" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="E16" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="E22" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="E23" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="E25" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="E27" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>156</v>
-      </c>
       <c r="D28" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="D30" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="D31" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="D32" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>166</v>
-      </c>
       <c r="D33" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>168</v>
-      </c>
       <c r="D34" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3462,114 +3462,114 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3597,62 +3597,62 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1">
       <c r="C5" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1">
       <c r="C6" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3678,334 +3678,334 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4033,7 +4033,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4106,85 +4106,85 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -7,21 +7,22 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="天气数据" sheetId="1" r:id="rId1"/>
-    <sheet name="大字" sheetId="4" r:id="rId2"/>
-    <sheet name="提醒安卓" sheetId="8" r:id="rId3"/>
-    <sheet name="提醒ios" sheetId="5" r:id="rId4"/>
-    <sheet name="背景色" sheetId="6" r:id="rId5"/>
-    <sheet name="分享文字" sheetId="7" r:id="rId6"/>
-    <sheet name="backup" sheetId="2" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
+    <sheet name="背景图" sheetId="9" r:id="rId1"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId2"/>
+    <sheet name="大字" sheetId="4" r:id="rId3"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId4"/>
+    <sheet name="提醒ios" sheetId="5" r:id="rId5"/>
+    <sheet name="背景色" sheetId="6" r:id="rId6"/>
+    <sheet name="分享文字" sheetId="7" r:id="rId7"/>
+    <sheet name="backup" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="278">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1064,12 +1065,40 @@
     <t>200~299</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cloudy w1 w2 w18 w31 w32</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dusty w20 w29 w35 w36</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightrain w3 w6 w7 w19 w33</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>rainy w8 w9 w10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow w13 w14 w15 w16 w17 w34</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunny w0 w30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>thunder w4 w5 w21</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,6 +1159,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1186,7 +1222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,6 +1268,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2696,9 +2733,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2891,7 +2982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -3441,7 +3532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3579,7 +3670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3661,7 +3752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -4015,7 +4106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4042,7 +4133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -4193,7 +4284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="背景图" sheetId="9" r:id="rId1"/>
-    <sheet name="天气数据" sheetId="1" r:id="rId2"/>
-    <sheet name="大字" sheetId="4" r:id="rId3"/>
-    <sheet name="提醒安卓" sheetId="8" r:id="rId4"/>
-    <sheet name="提醒ios" sheetId="5" r:id="rId5"/>
-    <sheet name="背景色" sheetId="6" r:id="rId6"/>
-    <sheet name="分享文字" sheetId="7" r:id="rId7"/>
-    <sheet name="backup" sheetId="2" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
+    <sheet name="出行提醒" sheetId="10" r:id="rId2"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId3"/>
+    <sheet name="大字" sheetId="4" r:id="rId4"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId5"/>
+    <sheet name="提醒ios" sheetId="5" r:id="rId6"/>
+    <sheet name="背景色" sheetId="6" r:id="rId7"/>
+    <sheet name="分享文字" sheetId="7" r:id="rId8"/>
+    <sheet name="backup" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="335">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1093,12 +1094,239 @@
     <t>thunder w4 w5 w21</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>带伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/search/?keyword=伞</t>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽说链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/search/?keyword=口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/search/?keyword=夏装 短袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/guang/catalog/?nid=2299&amp;pnid=2261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/guang/catalog/?nid=2311&amp;pnid=2261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/search/?keyword=毛衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/search/?keyword=外套 秋冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/search/?keyword=外套 冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/search/?keyword=短裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/guang/catalog/?nid=2341&amp;pnid=2265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/guang/catalog/?nid=2285&amp;pnid=2259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/guang/catalog/?nid=2275&amp;pnid=2259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/guang/catalog/?nid=2757&amp;pnid=13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/guang/catalog/?nid=2395&amp;pnid=2269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/search/?keyword=保湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/search/?keyword=去油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滋润保湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/search/?keyword=滋润保湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防脱水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.meilishuo.com/search/?keyword=补水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长袖t恤女款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=女装夏装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=薄外套女春秋薄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=毛衣开衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=外套女冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=大衣 女 外套 秋冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=夏季裤裙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长裤秋冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=凉鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=单鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=冬靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=墨镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=保湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=去油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=滋润保湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=补水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1166,6 +1394,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1217,12 +1454,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,9 +1509,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2735,7 +2979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2785,7 +3029,367 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="78.625" customWidth="1"/>
+    <col min="3" max="3" width="53.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C18" r:id="rId16"/>
+    <hyperlink ref="C19" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId18"/>
+    <hyperlink ref="B3" r:id="rId19"/>
+    <hyperlink ref="B4" r:id="rId20"/>
+    <hyperlink ref="B5:B19" r:id="rId21" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q="/>
+    <hyperlink ref="B5" r:id="rId22"/>
+    <hyperlink ref="B6" r:id="rId23"/>
+    <hyperlink ref="B7" r:id="rId24"/>
+    <hyperlink ref="B8" r:id="rId25"/>
+    <hyperlink ref="B9" r:id="rId26"/>
+    <hyperlink ref="B10" r:id="rId27"/>
+    <hyperlink ref="B11" r:id="rId28"/>
+    <hyperlink ref="B12" r:id="rId29"/>
+    <hyperlink ref="B13" r:id="rId30"/>
+    <hyperlink ref="B14" r:id="rId31"/>
+    <hyperlink ref="B15" r:id="rId32"/>
+    <hyperlink ref="B16" r:id="rId33"/>
+    <hyperlink ref="B17" r:id="rId34"/>
+    <hyperlink ref="B18" r:id="rId35"/>
+    <hyperlink ref="B19" r:id="rId36"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -2982,7 +3586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -3532,7 +4136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3670,7 +4274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3752,7 +4356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -4106,7 +4710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4133,7 +4737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -4282,97 +4886,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -1258,67 +1258,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=薄外套女春秋薄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=毛衣开衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=外套女冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=大衣 女 外套 秋冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=夏季裤裙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长裤秋冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=凉鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=单鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=冬靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=墨镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=保湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=去油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=滋润保湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=补水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=女装夏装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长袖t恤女款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=女装夏装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=薄外套女春秋薄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=毛衣开衫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=外套女冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=大衣 女 外套 秋冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=夏季裤裙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长裤秋冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=凉鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=单鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=冬靴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=墨镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=保湿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=去油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=滋润保湿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=补水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3127,7 +3127,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3174,7 +3174,7 @@
         <v>286</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>285</v>
@@ -3185,7 +3185,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>288</v>
@@ -3196,7 +3196,7 @@
         <v>289</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>290</v>
@@ -3207,7 +3207,7 @@
         <v>292</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>291</v>
@@ -3218,7 +3218,7 @@
         <v>294</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>293</v>
@@ -3229,7 +3229,7 @@
         <v>296</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>295</v>
@@ -3240,7 +3240,7 @@
         <v>298</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>297</v>
@@ -3251,7 +3251,7 @@
         <v>300</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>299</v>
@@ -3262,7 +3262,7 @@
         <v>301</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>302</v>
@@ -3273,7 +3273,7 @@
         <v>303</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>304</v>
@@ -3284,7 +3284,7 @@
         <v>305</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>306</v>
@@ -3295,7 +3295,7 @@
         <v>307</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>308</v>
@@ -3306,7 +3306,7 @@
         <v>309</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>310</v>
@@ -3317,7 +3317,7 @@
         <v>311</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>312</v>
@@ -3328,7 +3328,7 @@
         <v>313</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>314</v>
@@ -3339,7 +3339,7 @@
         <v>315</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>316</v>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="背景图" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="337">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -936,10 +936,6 @@
   </si>
   <si>
     <t>零星小雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪花纷飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1319,6 +1315,18 @@
   </si>
   <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长袖t恤女款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪花纷飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾霾笼罩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1404,7 +1412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1426,6 +1434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,7 +1476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1510,6 +1524,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2979,9 +2996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2990,37 +3005,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3138,211 +3153,211 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" t="s">
         <v>278</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>301</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>303</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>307</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>309</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>315</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3486,7 +3501,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -3497,10 +3512,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" t="s">
         <v>268</v>
-      </c>
-      <c r="C11" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3566,7 +3581,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3590,8 +3605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3642,7 +3657,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>94</v>
@@ -3659,10 +3674,10 @@
         <v>97</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3676,10 +3691,10 @@
         <v>100</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25">
@@ -3693,10 +3708,10 @@
         <v>103</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3713,7 +3728,7 @@
         <v>107</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3730,7 +3745,7 @@
         <v>107</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
@@ -3747,7 +3762,7 @@
         <v>114</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3764,7 +3779,7 @@
         <v>215</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3778,10 +3793,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3798,7 +3813,7 @@
         <v>122</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3815,7 +3830,7 @@
         <v>125</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3832,7 +3847,7 @@
         <v>128</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3849,7 +3864,7 @@
         <v>240</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3866,7 +3881,7 @@
         <v>241</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3880,10 +3895,10 @@
         <v>133</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3900,7 +3915,7 @@
         <v>238</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3917,7 +3932,7 @@
         <v>138</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3925,16 +3940,16 @@
         <v>78</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>140</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>258</v>
+        <v>336</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3951,7 +3966,7 @@
         <v>145</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3968,7 +3983,7 @@
         <v>148</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3982,7 +3997,7 @@
         <v>219</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3999,7 +4014,7 @@
         <v>153</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4013,10 +4028,10 @@
         <v>155</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4030,10 +4045,10 @@
         <v>157</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4050,7 +4065,7 @@
         <v>141</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4067,7 +4082,7 @@
         <v>107</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4084,7 +4099,7 @@
         <v>239</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4101,7 +4116,7 @@
         <v>153</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4118,7 +4133,7 @@
         <v>148</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4157,7 +4172,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>173</v>
@@ -4177,7 +4192,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>173</v>
@@ -4186,7 +4201,7 @@
         <v>180</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>235</v>
@@ -4197,7 +4212,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>176</v>
@@ -4208,10 +4223,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>231</v>
@@ -4241,13 +4256,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>234</v>
@@ -4255,10 +4270,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>227</v>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="背景图" sheetId="9" r:id="rId1"/>
-    <sheet name="出行提醒" sheetId="10" r:id="rId2"/>
-    <sheet name="天气数据" sheetId="1" r:id="rId3"/>
-    <sheet name="大字" sheetId="4" r:id="rId4"/>
-    <sheet name="提醒安卓" sheetId="8" r:id="rId5"/>
-    <sheet name="提醒ios" sheetId="5" r:id="rId6"/>
-    <sheet name="背景色" sheetId="6" r:id="rId7"/>
-    <sheet name="分享文字" sheetId="7" r:id="rId8"/>
-    <sheet name="backup" sheetId="2" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId10"/>
+    <sheet name="空气指数详情" sheetId="11" r:id="rId2"/>
+    <sheet name="出行提醒" sheetId="10" r:id="rId3"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId4"/>
+    <sheet name="大字" sheetId="4" r:id="rId5"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId6"/>
+    <sheet name="提醒ios" sheetId="5" r:id="rId7"/>
+    <sheet name="背景色" sheetId="6" r:id="rId8"/>
+    <sheet name="分享文字" sheetId="7" r:id="rId9"/>
+    <sheet name="backup" sheetId="2" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="350">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1329,12 +1330,82 @@
     <t>雾霾笼罩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻度污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重度污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应减少户外活动，外出时佩戴口罩，敏感人群应尽量避免外出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气很好，可以外出活动，呼吸新鲜空气。</t>
+  </si>
+  <si>
+    <t>敏感人群症状易加剧，应尽量避免高强度户外锻炼，外出时做好防护措施。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应减少户外活动，外出时佩戴口罩，敏感人群应留在室内。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，外出时佩戴口罩，敏感人群应留在室内。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常在户外活动，易敏感人群应减少外出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源于百度pm2.5提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1411,6 +1482,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1476,7 +1567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1527,6 +1618,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3046,6 +3143,157 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3138,6 +3386,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3404,7 +3726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -3601,11 +3923,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4151,7 +4473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4289,7 +4611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -4371,7 +4693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -4725,7 +5047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4750,155 +5072,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="345">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1331,42 +1331,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轻度污染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中度污染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重度污染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应减少户外活动，外出时佩戴口罩，敏感人群应尽量避免外出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空气很好，可以外出活动，呼吸新鲜空气。</t>
   </si>
   <si>
     <t>敏感人群症状易加剧，应尽量避免高强度户外锻炼，外出时做好防护措施。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常在户外活动，易敏感人群应减少外出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源于百度pm2.5提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议减少户外活动，外出时佩戴口罩，敏感人群应尽量避免外出。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1378,7 +1362,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>应减少户外活动，外出时佩戴口罩，敏感人群应留在室内。</t>
+      <t>建议减少户外活动，外出时佩戴口罩，敏感人群应留在室内。</t>
     </r>
     <r>
       <rPr>
@@ -1393,11 +1377,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以正常在户外活动，易敏感人群应减少外出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源于百度pm2.5提示</t>
+    <t>建议避免外出，敏感人群应留在室内，关好门窗。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3387,69 +3367,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="1" max="1" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>341</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3731,7 +3751,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A6" sqref="A6:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -8,23 +8,24 @@
   </bookViews>
   <sheets>
     <sheet name="背景图" sheetId="9" r:id="rId1"/>
-    <sheet name="空气指数详情" sheetId="11" r:id="rId2"/>
-    <sheet name="出行提醒" sheetId="10" r:id="rId3"/>
-    <sheet name="天气数据" sheetId="1" r:id="rId4"/>
-    <sheet name="大字" sheetId="4" r:id="rId5"/>
-    <sheet name="提醒安卓" sheetId="8" r:id="rId6"/>
-    <sheet name="提醒ios" sheetId="5" r:id="rId7"/>
-    <sheet name="背景色" sheetId="6" r:id="rId8"/>
-    <sheet name="分享文字" sheetId="7" r:id="rId9"/>
-    <sheet name="backup" sheetId="2" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId11"/>
+    <sheet name="赞助" sheetId="12" r:id="rId2"/>
+    <sheet name="空气指数详情" sheetId="11" r:id="rId3"/>
+    <sheet name="出行提醒" sheetId="10" r:id="rId4"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId5"/>
+    <sheet name="大字" sheetId="4" r:id="rId6"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId7"/>
+    <sheet name="提醒ios" sheetId="5" r:id="rId8"/>
+    <sheet name="背景色" sheetId="6" r:id="rId9"/>
+    <sheet name="分享文字" sheetId="7" r:id="rId10"/>
+    <sheet name="backup" sheetId="2" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="366">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1378,6 +1379,90 @@
   </si>
   <si>
     <t>建议避免外出，敏感人群应留在室内，关好门窗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≤6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7~12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12~18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61~120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪情赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠义赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激情赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大方赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仗义赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31~60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出血赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳楼赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖车赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖房赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121~180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181~240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>241~300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3123,6 +3208,33 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="62.75" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="63.875" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3272,7 +3384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -3367,9 +3479,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3479,7 +3695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3746,7 +3962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -3943,7 +4159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -4493,7 +4709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4631,7 +4847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -4713,7 +4929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -5065,31 +5281,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="62.75" customWidth="1"/>
-    <col min="3" max="3" width="34.25" customWidth="1"/>
-    <col min="4" max="4" width="63.875" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="367">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1402,19 +1402,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>友情赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠义赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大方赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31~60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳楼赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖车赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖房赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121~180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181~240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>241~300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仗义赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>豪情赞助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>友情赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠义赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19~30</t>
+    <t>出血赞助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1422,47 +1466,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大方赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仗义赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31~60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出血赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳楼赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖车赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖房赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121~180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>181~240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>241~300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>≥300</t>
+    <t>ios id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3479,7 +3483,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -3487,92 +3491,104 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" t="s">
         <v>354</v>
       </c>
-      <c r="B6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" t="s">
         <v>358</v>
       </c>
-      <c r="B8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" t="s">
         <v>359</v>
       </c>
-      <c r="B9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" t="s">
         <v>360</v>
       </c>
-      <c r="B10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" t="s">
         <v>361</v>
-      </c>
-      <c r="B11" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="350">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1382,23 +1382,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>累计金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>≤6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7~12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12~18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61~120</t>
+    <t>iap name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1406,67 +1394,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>侠义赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19~30</t>
+    <t>激情赞助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大方赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31~60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳楼赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖车赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖房赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121~180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>181~240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>241~300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>≥300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仗义赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪情赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出血赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激情赞助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3483,112 +3415,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>345</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2">
+        <v>347</v>
+      </c>
+      <c r="B2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>349</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B4" t="s">
         <v>348</v>
       </c>
-      <c r="C4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6">
+      <c r="B4">
         <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>355</v>
-      </c>
-      <c r="B9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B11" t="s">
-        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,28 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="背景图" sheetId="9" r:id="rId1"/>
-    <sheet name="赞助" sheetId="12" r:id="rId2"/>
-    <sheet name="空气指数详情" sheetId="11" r:id="rId3"/>
-    <sheet name="出行提醒" sheetId="10" r:id="rId4"/>
-    <sheet name="天气数据" sheetId="1" r:id="rId5"/>
-    <sheet name="大字" sheetId="4" r:id="rId6"/>
-    <sheet name="提醒安卓" sheetId="8" r:id="rId7"/>
-    <sheet name="提醒ios" sheetId="5" r:id="rId8"/>
-    <sheet name="背景色" sheetId="6" r:id="rId9"/>
-    <sheet name="分享文字" sheetId="7" r:id="rId10"/>
-    <sheet name="backup" sheetId="2" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId12"/>
+    <sheet name="元素点击详情" sheetId="13" r:id="rId1"/>
+    <sheet name="风力表" sheetId="14" r:id="rId2"/>
+    <sheet name="背景图" sheetId="9" r:id="rId3"/>
+    <sheet name="赞助" sheetId="12" r:id="rId4"/>
+    <sheet name="空气指数详情" sheetId="11" r:id="rId5"/>
+    <sheet name="出行提醒" sheetId="10" r:id="rId6"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId7"/>
+    <sheet name="大字" sheetId="4" r:id="rId8"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId9"/>
+    <sheet name="提醒ios" sheetId="5" r:id="rId10"/>
+    <sheet name="背景色" sheetId="6" r:id="rId11"/>
+    <sheet name="分享文字" sheetId="7" r:id="rId12"/>
+    <sheet name="backup" sheetId="2" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="383">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1337,14 +1339,6 @@
   </si>
   <si>
     <t>空气很好，可以外出活动，呼吸新鲜空气。</t>
-  </si>
-  <si>
-    <t>敏感人群症状易加剧，应尽量避免高强度户外锻炼，外出时做好防护措施。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以正常在户外活动，易敏感人群应减少外出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>来源于百度pm2.5提示</t>
@@ -1399,6 +1393,145 @@
   </si>
   <si>
     <t>大方赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常在户外活动，易敏感人群应减少外出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏感人群症状易加剧，应尽量避免高强度户外锻炼，外出时做好防护措施。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">明日 X；后天 X </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前温度 XX°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北风 3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前天气 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气 良 /123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见风力详情表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度 30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风级</t>
+  </si>
+  <si>
+    <t>无风（静，烟直上）风速：0.0-0.2m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软风（烟示风向）风速：0.3-1.5m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻风（感觉有风）风速：1.6-3.3m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微风（旌旗展开）风速：3.4-5.4m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和风（吹起尘土）风速：5.5-7.9m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风（小树摇摆）风速：8.0-10.7m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强风（电线有声）风速：10.8-13.8m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劲风（步行困难）风速：13.9-17.1m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风（折毁树枝）风速：17.2-20.7m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风（小损房屋）风速：20.8-24.4m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风（损毁重大）风速：28.5-32.6m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风（摧毁极大）风速：&gt;32.6m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂风（拔起树木）风速：24.5-28.4m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见空气指数详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取moji化妆指数详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取moji紫外线指数详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日12~13°/昨日13~23°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1568,7 +1701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1626,6 +1759,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3092,48 +3231,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
-        <v>276</v>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3143,6 +3324,442 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="62.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="8" customFormat="1">
+      <c r="C5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1">
+      <c r="C6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25">
+      <c r="A7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3169,7 +3786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -3320,7 +3937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -3415,9 +4032,189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6" style="21" customWidth="1"/>
+    <col min="2" max="2" width="61.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="21">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3428,15 +4225,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -3444,7 +4241,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -3452,7 +4249,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -3464,12 +4261,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3498,7 +4295,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -3512,7 +4309,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -3526,7 +4323,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3540,7 +4337,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -3554,7 +4351,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -3568,7 +4365,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3578,7 +4375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3845,12 +4642,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3858,6 +4655,7 @@
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -4042,7 +4840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -4592,7 +5390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4728,440 +5526,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="62.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="8" customFormat="1">
-      <c r="C5" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="8" customFormat="1">
-      <c r="C6" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,30 +4,31 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="元素点击详情" sheetId="13" r:id="rId1"/>
     <sheet name="风力表" sheetId="14" r:id="rId2"/>
-    <sheet name="背景图" sheetId="9" r:id="rId3"/>
-    <sheet name="赞助" sheetId="12" r:id="rId4"/>
-    <sheet name="空气指数详情" sheetId="11" r:id="rId5"/>
-    <sheet name="出行提醒" sheetId="10" r:id="rId6"/>
-    <sheet name="天气数据" sheetId="1" r:id="rId7"/>
-    <sheet name="大字" sheetId="4" r:id="rId8"/>
-    <sheet name="提醒安卓" sheetId="8" r:id="rId9"/>
-    <sheet name="提醒ios" sheetId="5" r:id="rId10"/>
-    <sheet name="背景色" sheetId="6" r:id="rId11"/>
-    <sheet name="分享文字" sheetId="7" r:id="rId12"/>
-    <sheet name="backup" sheetId="2" r:id="rId13"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId14"/>
+    <sheet name="明日预报" sheetId="15" r:id="rId3"/>
+    <sheet name="背景图" sheetId="9" r:id="rId4"/>
+    <sheet name="赞助" sheetId="12" r:id="rId5"/>
+    <sheet name="空气指数详情" sheetId="11" r:id="rId6"/>
+    <sheet name="出行提醒" sheetId="10" r:id="rId7"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId8"/>
+    <sheet name="大字" sheetId="4" r:id="rId9"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId10"/>
+    <sheet name="提醒ios" sheetId="5" r:id="rId11"/>
+    <sheet name="背景色" sheetId="6" r:id="rId12"/>
+    <sheet name="分享文字" sheetId="7" r:id="rId13"/>
+    <sheet name="backup" sheetId="2" r:id="rId14"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="387">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1532,6 +1533,22 @@
   </si>
   <si>
     <t>今日12~13°/昨日13~23°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">时间范围 17:00~23:30 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可设置为不通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">明天上海天气：晴 12~23° </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3233,7 +3250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3324,6 +3341,144 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="65" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="D3" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3405,7 +3560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -3759,7 +3914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3786,7 +3941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -3937,7 +4092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -4160,6 +4315,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="42.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4210,7 +4404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4261,7 +4455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4375,7 +4569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -4642,7 +4836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -4840,7 +5034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -5388,142 +5582,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="65" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="D3" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="D5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="D6" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="390">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1548,7 +1548,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>内容：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">明天上海天气：晴 12~23° </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒人天气明日预报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4315,34 +4327,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.625" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>385</v>
       </c>
     </row>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="元素点击详情" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="392">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1561,6 +1561,14 @@
   </si>
   <si>
     <t>懒人天气明日预报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享标题：懒人天气提醒您：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题Url：http://t.cn/z8ctcoX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3263,7 +3271,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3928,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3947,6 +3955,16 @@
         <v>223</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3958,7 +3976,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD20"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4109,7 +4127,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4329,8 +4347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="393">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1569,6 +1569,10 @@
   </si>
   <si>
     <t>标题Url：http://t.cn/z8ctcoX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人评论：大家注意了！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3936,10 +3940,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3963,6 +3967,11 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="396">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -865,10 +865,6 @@
   </si>
   <si>
     <t>今天XX的天气：XX转XX，记得带伞哦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前城市名:XX,XX°,空气 良,风力X级.（来自懒人天气）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1568,11 +1564,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>人人评论：大家注意了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>标题Url：http://t.cn/z8ctcoX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人人评论：大家注意了！</t>
+    <t>今天上海晴/12~23°。周四：晴/12~23°；周五：晴/12~23°；周六：晴/12~23°；@懒人天气 http://t.cn/z8ctcoX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3286,76 +3298,76 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>173</v>
@@ -3400,12 +3412,12 @@
         <v>177</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>173</v>
@@ -3414,35 +3426,35 @@
         <v>180</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>176</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3453,7 +3465,7 @@
         <v>178</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3464,35 +3476,35 @@
         <v>179</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3559,7 +3571,7 @@
         <v>170</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1">
@@ -3940,38 +3952,49 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="62.75" customWidth="1"/>
-    <col min="3" max="3" width="34.25" customWidth="1"/>
-    <col min="4" max="4" width="63.875" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="104.75" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="63.875" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4103,26 +4126,26 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4261,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4246,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4254,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4262,7 +4285,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4270,7 +4293,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4278,7 +4301,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4286,7 +4309,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4294,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4302,7 +4325,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4310,7 +4333,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4318,7 +4341,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4326,7 +4349,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4334,7 +4357,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4342,7 +4365,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -4368,33 +4391,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" t="s">
         <v>388</v>
-      </c>
-      <c r="B1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" t="s">
         <v>386</v>
-      </c>
-      <c r="B2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4416,37 +4439,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4470,15 +4493,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -4486,7 +4509,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -4494,7 +4517,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -4521,12 +4544,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -4540,7 +4563,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -4554,7 +4577,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -4568,7 +4591,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4582,13 +4605,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -4596,21 +4619,21 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" t="s">
         <v>267</v>
-      </c>
-      <c r="D7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4636,211 +4659,211 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" t="s">
         <v>277</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>286</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>302</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>306</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>308</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>310</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>314</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4985,7 +5008,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -4996,10 +5019,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" t="s">
         <v>267</v>
-      </c>
-      <c r="C11" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5065,7 +5088,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5112,7 +5135,7 @@
         <v>90</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5141,7 +5164,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>94</v>
@@ -5158,10 +5181,10 @@
         <v>97</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5175,10 +5198,10 @@
         <v>100</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25">
@@ -5192,10 +5215,10 @@
         <v>103</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5212,7 +5235,7 @@
         <v>107</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5229,7 +5252,7 @@
         <v>107</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
@@ -5246,7 +5269,7 @@
         <v>114</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5263,7 +5286,7 @@
         <v>215</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5277,10 +5300,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5297,7 +5320,7 @@
         <v>122</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5314,7 +5337,7 @@
         <v>125</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5331,7 +5354,7 @@
         <v>128</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5345,10 +5368,10 @@
         <v>88</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5362,10 +5385,10 @@
         <v>131</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5379,10 +5402,10 @@
         <v>133</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5396,10 +5419,10 @@
         <v>135</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5416,7 +5439,7 @@
         <v>138</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5424,16 +5447,16 @@
         <v>78</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>140</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5450,7 +5473,7 @@
         <v>145</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5467,7 +5490,7 @@
         <v>148</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5481,7 +5504,7 @@
         <v>219</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5498,7 +5521,7 @@
         <v>153</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5512,10 +5535,10 @@
         <v>155</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5529,10 +5552,10 @@
         <v>157</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5549,7 +5572,7 @@
         <v>141</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5566,7 +5589,7 @@
         <v>107</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5580,10 +5603,10 @@
         <v>163</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5600,7 +5623,7 @@
         <v>153</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5617,7 +5640,7 @@
         <v>148</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:5">

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" tabRatio="825"/>
   </bookViews>
   <sheets>
     <sheet name="元素点击详情" sheetId="13" r:id="rId1"/>
     <sheet name="风力表" sheetId="14" r:id="rId2"/>
-    <sheet name="明日预报" sheetId="15" r:id="rId3"/>
-    <sheet name="背景图" sheetId="9" r:id="rId4"/>
-    <sheet name="赞助" sheetId="12" r:id="rId5"/>
-    <sheet name="空气指数详情" sheetId="11" r:id="rId6"/>
-    <sheet name="出行提醒" sheetId="10" r:id="rId7"/>
-    <sheet name="天气数据" sheetId="1" r:id="rId8"/>
-    <sheet name="大字" sheetId="4" r:id="rId9"/>
+    <sheet name="大字" sheetId="4" r:id="rId3"/>
+    <sheet name="明日预报" sheetId="15" r:id="rId4"/>
+    <sheet name="背景图" sheetId="9" r:id="rId5"/>
+    <sheet name="赞助" sheetId="12" r:id="rId6"/>
+    <sheet name="空气指数详情" sheetId="11" r:id="rId7"/>
+    <sheet name="出行提醒" sheetId="10" r:id="rId8"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId9"/>
     <sheet name="提醒安卓" sheetId="8" r:id="rId10"/>
     <sheet name="提醒ios" sheetId="5" r:id="rId11"/>
     <sheet name="背景色" sheetId="6" r:id="rId12"/>
     <sheet name="分享文字" sheetId="7" r:id="rId13"/>
     <sheet name="backup" sheetId="2" r:id="rId14"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="421">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空气污染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>w0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阵雨冰雹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>w6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,10 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中雨降临</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,10 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大雨倾盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暴雨来袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阵雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,10 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暴雪来袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,10 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冻雨降临</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沙尘暴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,10 +809,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小雨夹雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无忧出行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -921,22 +890,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫天白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶有降雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶有降雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零星小雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -989,10 +942,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中度污染以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中度污染及以上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1001,17 +950,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>细雨绵绵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴空万里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴云密布</t>
-  </si>
-  <si>
     <t>1.2.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1032,22 +970,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晴转多云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月朗星稀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夜间多云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用moji的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1065,31 +991,31 @@
   </si>
   <si>
     <t>cloudy w1 w2 w18 w31 w32</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>dusty w20 w29 w35 w36</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>lightrain w3 w6 w7 w19 w33</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>rainy w8 w9 w10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>snow w13 w14 w15 w16 w17 w34</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>sunny w0 w30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>thunder w4 w5 w21</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>带伞</t>
@@ -1319,15 +1245,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雪花纷飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>霾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雾霾笼罩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1587,12 +1505,196 @@
     <t>今天上海晴/12~23°。周四：晴/12~23°；周五：晴/12~23°；周六：晴/12~23°；@懒人天气 http://t.cn/z8ctcoX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>短时雷雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有阵雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵雨冰雹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨夹雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有降雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶有降雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零星小雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今夜上海月朗星稀，您可以无忧出行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今夜上海阴云密布，您可以无忧出行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无忧出行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细雨绵绵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中雨降临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雨倾盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雨来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪花纷飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫天白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雪来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻雨降临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾霾笼罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻度污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好不要外出，注意关好门窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意避暑，多喝水，心静自然凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请注意加衣保暖，谨防感冒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好带着口罩出门，开车时要格外小心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天天气不错，没什么需要担心的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议不要外出，注意关好门窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是带伞出门吧，如果运气不好会被淋死的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带上伞，如果变天了，最好不要出门，冰雹伤不起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一定有雨，但最好还是带把伞，以防万一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带伞出门吧，雨雪虽然较小，但是打到脸上蛮冷的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好还是带把伞，小雨有可能变中雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得带伞出门哦；雨落如线，洼地积水较快；最好穿防水鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好少出门，大雨哗哗的，打伞也会一身湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的城市有可能被淹，打伞也没用了，尽量别出门吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一定有雪，但最好还是带把伞吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用带伞，但路面可能结冰，走路要小心哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果长时外出，还是带把伞，以免积雪打湿衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪很大，如果外出不打伞，10分钟会变成雪人~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定要带伞哦，另外交通可能会很堵，尽量错峰吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得带伞出门哦，路面湿滑，走路要小心哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好别出门了，小心变成土人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好带着口罩出门，最好不要开车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视线很差，开车时要格外小心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个大字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取moji今日详情的温馨提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,12 +1750,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1690,7 +1786,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1718,6 +1814,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,7 +1852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1794,23 +1896,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1818,6 +1917,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3284,10 +3386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3298,76 +3400,87 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C4" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="C5" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>380</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3397,114 +3510,114 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="9" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>178</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>179</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3532,62 +3645,62 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
         <v>173</v>
       </c>
-      <c r="B2" t="s">
-        <v>180</v>
-      </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
         <v>169</v>
-      </c>
-      <c r="D3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1">
       <c r="C5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1">
       <c r="C6" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3613,92 +3726,92 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3706,11 +3819,11 @@
         <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3718,11 +3831,11 @@
         <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3730,11 +3843,11 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3742,10 +3855,10 @@
         <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3753,10 +3866,10 @@
         <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3764,10 +3877,10 @@
         <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3775,10 +3888,10 @@
         <v>75</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3786,10 +3899,10 @@
         <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3797,10 +3910,10 @@
         <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3808,21 +3921,21 @@
         <v>78</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3830,10 +3943,10 @@
         <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3841,21 +3954,21 @@
         <v>80</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3863,10 +3976,10 @@
         <v>81</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3874,10 +3987,10 @@
         <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3885,10 +3998,10 @@
         <v>83</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3896,10 +4009,10 @@
         <v>84</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3907,10 +4020,10 @@
         <v>85</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3918,10 +4031,10 @@
         <v>86</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3929,18 +4042,18 @@
         <v>87</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3954,7 +4067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3970,31 +4083,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -4007,8 +4120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4067,85 +4180,85 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
         <v>173</v>
       </c>
-      <c r="B11" t="s">
-        <v>180</v>
-      </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4247,6 +4360,205 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="50.25" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
@@ -4255,117 +4567,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6" style="21" customWidth="1"/>
+    <col min="1" max="1" width="6" style="20" customWidth="1"/>
     <col min="2" max="2" width="61.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
-      <c r="A1" s="20" t="s">
-        <v>364</v>
+      <c r="A1" s="19" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4376,6 +4688,569 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="7" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="D5" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4391,33 +5266,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="B1" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4426,7 +5301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -4438,38 +5313,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
-        <v>269</v>
+      <c r="A1" s="14" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
-        <v>270</v>
+      <c r="A2" s="14" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
-        <v>271</v>
+      <c r="A3" s="14" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
-        <v>272</v>
+      <c r="A4" s="14" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
-        <v>273</v>
+      <c r="A5" s="14" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
-        <v>274</v>
+      <c r="A6" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
-        <v>275</v>
+      <c r="A7" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +5353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4493,15 +5368,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -4509,7 +5384,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -4517,7 +5392,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -4529,7 +5404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4544,12 +5419,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="19" t="s">
-        <v>337</v>
+      <c r="A2" s="18" t="s">
+        <v>316</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -4563,7 +5438,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -4577,7 +5452,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -4591,7 +5466,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4604,14 +5479,14 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="18" t="s">
-        <v>340</v>
+      <c r="A6" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -4619,21 +5494,21 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4643,7 +5518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -4659,211 +5534,211 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>315</v>
+        <v>257</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>281</v>
+        <v>263</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>283</v>
+        <v>265</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>286</v>
+        <v>266</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>288</v>
+        <v>268</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>289</v>
+        <v>271</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>291</v>
+        <v>273</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>293</v>
+        <v>275</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>295</v>
+        <v>277</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>297</v>
+        <v>279</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>300</v>
+        <v>280</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>302</v>
+        <v>282</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>304</v>
+        <v>284</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>305</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>306</v>
+        <v>286</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>307</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>308</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>310</v>
+      <c r="C17" s="15" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>311</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>312</v>
+        <v>292</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>314</v>
+        <v>294</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4910,7 +5785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -5008,7 +5883,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -5019,10 +5894,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5088,7 +5963,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5106,554 +5981,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18" style="10" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="C2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25">
-      <c r="A9" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" tabRatio="825"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" tabRatio="825" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="元素点击详情" sheetId="13" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="423">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1466,10 +1466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">明天上海天气：晴 12~23° </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标题：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1688,13 +1684,37 @@
   <si>
     <t>取moji今日详情的温馨提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>明天上海天气：晴 12~23°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；东北风3级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#016287</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2C007D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1785,6 +1805,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1856,7 +1884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1919,6 +1947,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3096,6 +3133,234 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="342900"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>178046</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505326" y="523143"/>
+          <a:ext cx="168520" cy="171451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>683602</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>5127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>169250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4493602" y="4300902"/>
+          <a:ext cx="164123" cy="164123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="4124325"/>
+          <a:ext cx="175846" cy="178777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="3781425"/>
+          <a:ext cx="171450" cy="175060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="3952875"/>
+          <a:ext cx="161925" cy="160256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3388,8 +3653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3474,13 +3739,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B9" t="s">
         <v>418</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>419</v>
-      </c>
-      <c r="C9" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3494,7 +3759,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3711,28 +3976,31 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="23"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1">
+    <row r="1" spans="1:5" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>94</v>
       </c>
@@ -3743,7 +4011,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>97</v>
       </c>
@@ -3753,8 +4021,11 @@
       <c r="D3" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>100</v>
       </c>
@@ -3765,8 +4036,11 @@
       <c r="D4" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>103</v>
       </c>
@@ -3778,7 +4052,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
@@ -3790,7 +4064,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25">
+    <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="5" t="s">
         <v>110</v>
       </c>
@@ -3801,8 +4075,9 @@
       <c r="D7" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>113</v>
       </c>
@@ -3814,7 +4089,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -3826,7 +4101,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -3838,7 +4113,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -3850,7 +4125,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -3861,7 +4136,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
@@ -3872,7 +4147,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
@@ -3883,7 +4158,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
@@ -3894,7 +4169,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -3905,7 +4180,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -3916,7 +4191,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -3927,7 +4202,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>136</v>
       </c>
@@ -3938,7 +4213,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
@@ -3949,7 +4224,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -3960,7 +4235,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
         <v>143</v>
       </c>
@@ -3971,7 +4246,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
         <v>81</v>
       </c>
@@ -3981,8 +4256,11 @@
       <c r="D23" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -3992,8 +4270,11 @@
       <c r="D24" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
@@ -4003,8 +4284,11 @@
       <c r="D25" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -4014,8 +4298,11 @@
       <c r="D26" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -4026,7 +4313,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>86</v>
       </c>
@@ -4037,7 +4324,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
         <v>87</v>
       </c>
@@ -4048,7 +4335,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="B30" s="2" t="s">
         <v>161</v>
       </c>
@@ -4059,7 +4346,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4083,31 +4371,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" t="s">
         <v>371</v>
-      </c>
-      <c r="C1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4362,198 +4650,14 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A39"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="50.25" style="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="21" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="21" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4692,7 +4796,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4702,10 +4806,11 @@
     <col min="3" max="3" width="31.875" style="10" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="11" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="50.25" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13" t="s">
@@ -4718,51 +4823,72 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="C2" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="C3" s="10" t="s">
         <v>209</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="D5" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>393</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="D8" s="11" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F8" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="10" t="s">
         <v>94</v>
       </c>
@@ -4778,8 +4904,11 @@
       <c r="E10" s="7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
         <v>97</v>
       </c>
@@ -4795,8 +4924,11 @@
       <c r="E11" s="7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="10" t="s">
         <v>100</v>
       </c>
@@ -4812,8 +4944,11 @@
       <c r="E12" s="7" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
         <v>103</v>
       </c>
@@ -4824,13 +4959,16 @@
         <v>105</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="10" t="s">
         <v>107</v>
       </c>
@@ -4841,13 +4979,16 @@
         <v>109</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25">
+      <c r="F14" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="10" t="s">
         <v>110</v>
       </c>
@@ -4858,13 +4999,16 @@
         <v>112</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="10" t="s">
         <v>113</v>
       </c>
@@ -4875,13 +5019,16 @@
         <v>115</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
         <v>69</v>
       </c>
@@ -4892,13 +5039,16 @@
         <v>117</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
         <v>70</v>
       </c>
@@ -4909,13 +5059,16 @@
         <v>119</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
         <v>71</v>
       </c>
@@ -4926,13 +5079,16 @@
         <v>121</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -4943,13 +5099,16 @@
         <v>123</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="10" t="s">
         <v>73</v>
       </c>
@@ -4960,13 +5119,16 @@
         <v>88</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="10" t="s">
         <v>74</v>
       </c>
@@ -4977,13 +5139,16 @@
         <v>126</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="10" t="s">
         <v>75</v>
       </c>
@@ -4994,13 +5159,16 @@
         <v>128</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
         <v>76</v>
       </c>
@@ -5011,13 +5179,16 @@
         <v>130</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="10" t="s">
         <v>77</v>
       </c>
@@ -5028,13 +5199,16 @@
         <v>132</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="10" t="s">
         <v>78</v>
       </c>
@@ -5045,13 +5219,16 @@
         <v>134</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="10" t="s">
         <v>136</v>
       </c>
@@ -5062,13 +5239,16 @@
         <v>138</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="10" t="s">
         <v>79</v>
       </c>
@@ -5084,8 +5264,11 @@
       <c r="E28" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="10" t="s">
         <v>80</v>
       </c>
@@ -5098,8 +5281,11 @@
       <c r="E29" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="10" t="s">
         <v>143</v>
       </c>
@@ -5115,8 +5301,11 @@
       <c r="E30" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="10" t="s">
         <v>81</v>
       </c>
@@ -5132,8 +5321,11 @@
       <c r="E31" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="10" t="s">
         <v>82</v>
       </c>
@@ -5144,13 +5336,16 @@
         <v>150</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="10" t="s">
         <v>83</v>
       </c>
@@ -5166,8 +5361,11 @@
       <c r="E33" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="10" t="s">
         <v>212</v>
       </c>
@@ -5183,8 +5381,11 @@
       <c r="E34" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="10" t="s">
         <v>85</v>
       </c>
@@ -5195,13 +5396,16 @@
         <v>156</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="10" t="s">
         <v>86</v>
       </c>
@@ -5217,8 +5421,11 @@
       <c r="E36" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="10" t="s">
         <v>87</v>
       </c>
@@ -5234,13 +5441,19 @@
       <c r="E37" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F37" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="B39" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>208</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -5255,21 +5468,21 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" t="s">
         <v>366</v>
-      </c>
-      <c r="B1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5277,7 +5490,7 @@
         <v>364</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5298,6 +5511,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,32 +4,33 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" tabRatio="825" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" tabRatio="825" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="元素点击详情" sheetId="13" r:id="rId1"/>
     <sheet name="风力表" sheetId="14" r:id="rId2"/>
     <sheet name="大字" sheetId="4" r:id="rId3"/>
     <sheet name="明日预报" sheetId="15" r:id="rId4"/>
-    <sheet name="背景图" sheetId="9" r:id="rId5"/>
-    <sheet name="赞助" sheetId="12" r:id="rId6"/>
-    <sheet name="空气指数详情" sheetId="11" r:id="rId7"/>
-    <sheet name="出行提醒" sheetId="10" r:id="rId8"/>
-    <sheet name="天气数据" sheetId="1" r:id="rId9"/>
-    <sheet name="提醒安卓" sheetId="8" r:id="rId10"/>
-    <sheet name="提醒ios" sheetId="5" r:id="rId11"/>
-    <sheet name="背景色" sheetId="6" r:id="rId12"/>
-    <sheet name="分享文字" sheetId="7" r:id="rId13"/>
-    <sheet name="backup" sheetId="2" r:id="rId14"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
+    <sheet name="天气变色" sheetId="6" r:id="rId5"/>
+    <sheet name="温度变色" sheetId="17" r:id="rId6"/>
+    <sheet name="背景图" sheetId="9" r:id="rId7"/>
+    <sheet name="赞助" sheetId="12" r:id="rId8"/>
+    <sheet name="空气指数详情" sheetId="11" r:id="rId9"/>
+    <sheet name="出行提醒" sheetId="10" r:id="rId10"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId11"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId12"/>
+    <sheet name="提醒ios" sheetId="5" r:id="rId13"/>
+    <sheet name="分享文字" sheetId="7" r:id="rId14"/>
+    <sheet name="backup" sheetId="2" r:id="rId15"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="478">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1708,6 +1709,219 @@
   </si>
   <si>
     <t>#2C007D</t>
+  </si>
+  <si>
+    <t>38 39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40及以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34 35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零下2 零下1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零下4 零下3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零下6 零下5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零下8 零下7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零下10 零下9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#009966</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff6633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#0099CC</t>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF6600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#bb0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#aa0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF3333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff3366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#cc3333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ee4444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff8866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#66cc33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#33cc66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00bb00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#99cc66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CCCC66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF3366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00aaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#66CCCC</t>
+  </si>
+  <si>
+    <t>#33CCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#0099ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#6666FF</t>
+  </si>
+  <si>
+    <t>#3366FF</t>
+  </si>
+  <si>
+    <t>零下11及以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#0066FF</t>
+  </si>
+  <si>
+    <t>#9966FF</t>
+  </si>
+  <si>
+    <t>#9933FF</t>
   </si>
 </sst>
 </file>
@@ -3353,6 +3567,1037 @@
         <a:xfrm>
           <a:off x="4495800" y="3952875"/>
           <a:ext cx="161925" cy="160256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1362075"/>
+          <a:ext cx="180975" cy="189201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1543050"/>
+          <a:ext cx="190500" cy="173181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="2914650"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161905</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3429000"/>
+          <a:ext cx="161905" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183045</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="342900"/>
+          <a:ext cx="183045" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163997</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095501" y="171451"/>
+          <a:ext cx="163996" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1200150"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="685800"/>
+          <a:ext cx="190500" cy="166687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="857250"/>
+          <a:ext cx="161925" cy="178970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="504825"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="685800"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1714500"/>
+          <a:ext cx="161925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1076324</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095499" y="2057400"/>
+          <a:ext cx="161925" cy="174380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180952</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="2228850"/>
+          <a:ext cx="180952" cy="161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="2400300"/>
+          <a:ext cx="161925" cy="147844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="2057400"/>
+          <a:ext cx="152400" cy="160421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152381</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="2057400"/>
+          <a:ext cx="152381" cy="161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180952</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1019175"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2100263" y="3111102"/>
+          <a:ext cx="144065" cy="168075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>153865</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3370385"/>
+          <a:ext cx="153865" cy="153865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142857</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3538904"/>
+          <a:ext cx="142857" cy="161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142857</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3707423"/>
+          <a:ext cx="142857" cy="152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123810</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="4174435"/>
+          <a:ext cx="123810" cy="123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1076738</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124238</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095499" y="4000499"/>
+          <a:ext cx="124239" cy="149087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142857</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="4348370"/>
+          <a:ext cx="142857" cy="152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142857</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="4522304"/>
+          <a:ext cx="142857" cy="142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>122398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="4696239"/>
+          <a:ext cx="115957" cy="122398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3756,1984 +5001,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="65" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="D3" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="D5" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="D6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="62.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="8" customFormat="1">
-      <c r="C5" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="8" customFormat="1">
-      <c r="C6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="9" style="23"/>
-    <col min="6" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="104.75" customWidth="1"/>
-    <col min="3" max="3" width="46.125" customWidth="1"/>
-    <col min="4" max="4" width="34.25" customWidth="1"/>
-    <col min="5" max="5" width="63.875" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="C3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="6" style="20" customWidth="1"/>
-    <col min="2" max="2" width="61.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
-      <c r="A1" s="19" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="20">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="20">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="20">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="20">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="20">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="20">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="20">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="20">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="20">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="20">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="20">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="20">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18" style="10" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="50.25" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="C2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="C4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="D5" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="D6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25">
-      <c r="A15" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="39.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="35.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="63" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5999,7 +5266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -6195,4 +5462,2228 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="65" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="D3" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="62.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="8" customFormat="1">
+      <c r="C5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1">
+      <c r="C6" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="104.75" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="63.875" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6" style="20" customWidth="1"/>
+    <col min="2" max="2" width="61.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="50.25" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25">
+      <c r="A15" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="23"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>439</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>442</v>
+      </c>
+      <c r="B21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>445</v>
+      </c>
+      <c r="B24" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>446</v>
+      </c>
+      <c r="B25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>447</v>
+      </c>
+      <c r="B26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>448</v>
+      </c>
+      <c r="B27" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>474</v>
+      </c>
+      <c r="B28" t="s">
+        <v>477</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,33 +4,34 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" tabRatio="825" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" tabRatio="825" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="元素点击详情" sheetId="13" r:id="rId1"/>
-    <sheet name="风力表" sheetId="14" r:id="rId2"/>
-    <sheet name="大字" sheetId="4" r:id="rId3"/>
-    <sheet name="明日预报" sheetId="15" r:id="rId4"/>
-    <sheet name="天气变色" sheetId="6" r:id="rId5"/>
-    <sheet name="温度变色" sheetId="17" r:id="rId6"/>
-    <sheet name="背景图" sheetId="9" r:id="rId7"/>
-    <sheet name="赞助" sheetId="12" r:id="rId8"/>
-    <sheet name="空气指数详情" sheetId="11" r:id="rId9"/>
-    <sheet name="出行提醒" sheetId="10" r:id="rId10"/>
-    <sheet name="天气数据" sheetId="1" r:id="rId11"/>
-    <sheet name="提醒安卓" sheetId="8" r:id="rId12"/>
-    <sheet name="提醒ios" sheetId="5" r:id="rId13"/>
+    <sheet name="大字" sheetId="4" r:id="rId2"/>
+    <sheet name="明日预报" sheetId="15" r:id="rId3"/>
+    <sheet name="天气变色" sheetId="6" r:id="rId4"/>
+    <sheet name="背景图" sheetId="9" r:id="rId5"/>
+    <sheet name="赞助" sheetId="12" r:id="rId6"/>
+    <sheet name="空气指数详情" sheetId="11" r:id="rId7"/>
+    <sheet name="出行提醒" sheetId="10" r:id="rId8"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId9"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId10"/>
+    <sheet name="提醒页说明" sheetId="18" r:id="rId11"/>
+    <sheet name="提醒ios" sheetId="5" r:id="rId12"/>
+    <sheet name="backup" sheetId="2" r:id="rId13"/>
     <sheet name="分享文字" sheetId="7" r:id="rId14"/>
-    <sheet name="backup" sheetId="2" r:id="rId15"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId17"/>
+    <sheet name="温度变色" sheetId="17" r:id="rId15"/>
+    <sheet name="风力表" sheetId="14" r:id="rId16"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="491">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1316,10 +1317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>敏感人群症状易加剧，应尽量避免高强度户外锻炼，外出时做好防护措施。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1850,10 +1847,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#ff3366</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#cc3333</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1922,6 +1915,66 @@
   </si>
   <si>
     <t>#9933FF</t>
+  </si>
+  <si>
+    <t>#dd0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏感人群症状易加剧，应尽量避免高强度户外锻炼，外出时做好防护措施。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豪赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议设置为您早上出门前的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒带伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有雨或有雪时提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降温提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日比昨日降温超过5°时提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度污染及以上时提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及时告知气象局发布的天气预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼夜温差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日温差超过10°时提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3584,13 +3637,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>8226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3760,7 +3813,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="342900"/>
+          <a:off x="2095500" y="347870"/>
           <a:ext cx="183045" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3812,13 +3865,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3850,13 +3903,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3888,52 +3941,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2095500" y="857250"/>
-          <a:ext cx="161925" cy="178970"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>173934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3943,7 +3958,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3964,44 +3979,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2095500" y="685800"/>
-          <a:ext cx="180975" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4019,7 +3996,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4057,7 +4034,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4095,7 +4072,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4133,7 +4110,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4171,7 +4148,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4209,7 +4186,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4230,13 +4207,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180952</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4247,7 +4224,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4285,7 +4262,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4323,7 +4300,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4361,7 +4338,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4399,7 +4376,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4437,7 +4414,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4475,7 +4452,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4513,7 +4490,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4551,7 +4528,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4589,7 +4566,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4598,6 +4575,82 @@
         <a:xfrm>
           <a:off x="2095500" y="4696239"/>
           <a:ext cx="115957" cy="122398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="695739"/>
+          <a:ext cx="180975" cy="183460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152381</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="521804"/>
+          <a:ext cx="152381" cy="152381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4910,87 +4963,87 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
         <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" t="s">
         <v>417</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>418</v>
-      </c>
-      <c r="C9" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -5000,6 +5053,2313 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="65" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="D3" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="62.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="8" customFormat="1">
+      <c r="C5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1">
+      <c r="C6" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="104.75" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="63.875" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>438</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>439</v>
+      </c>
+      <c r="B19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>440</v>
+      </c>
+      <c r="B20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B21" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>442</v>
+      </c>
+      <c r="B22" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>444</v>
+      </c>
+      <c r="B24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>445</v>
+      </c>
+      <c r="B25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>446</v>
+      </c>
+      <c r="B26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>447</v>
+      </c>
+      <c r="B27" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>472</v>
+      </c>
+      <c r="B28" t="s">
+        <v>475</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6" style="20" customWidth="1"/>
+    <col min="2" max="2" width="61.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="50.25" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25">
+      <c r="A15" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="23"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -5266,12 +7626,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5462,2228 +7822,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="65" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="D3" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="D5" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="D6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="62.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="8" customFormat="1">
-      <c r="C5" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="8" customFormat="1">
-      <c r="C6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="104.75" customWidth="1"/>
-    <col min="3" max="3" width="46.125" customWidth="1"/>
-    <col min="4" max="4" width="34.25" customWidth="1"/>
-    <col min="5" max="5" width="63.875" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="C3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="6" style="20" customWidth="1"/>
-    <col min="2" max="2" width="61.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
-      <c r="A1" s="19" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="20">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="20">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="20">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="20">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="20">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="20">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="20">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="20">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="20">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="20">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="20">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="20">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18" style="10" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="50.25" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="C2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="C4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="D5" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="D6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25">
-      <c r="A15" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="39.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="9" style="23"/>
-    <col min="6" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="B3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>430</v>
-      </c>
-      <c r="B9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>433</v>
-      </c>
-      <c r="B12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>434</v>
-      </c>
-      <c r="B13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>436</v>
-      </c>
-      <c r="B15" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>437</v>
-      </c>
-      <c r="B16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>438</v>
-      </c>
-      <c r="B17" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>439</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>440</v>
-      </c>
-      <c r="B19" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>441</v>
-      </c>
-      <c r="B20" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>442</v>
-      </c>
-      <c r="B21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>443</v>
-      </c>
-      <c r="B22" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>444</v>
-      </c>
-      <c r="B23" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>445</v>
-      </c>
-      <c r="B24" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>446</v>
-      </c>
-      <c r="B25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>447</v>
-      </c>
-      <c r="B26" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>448</v>
-      </c>
-      <c r="B27" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>474</v>
-      </c>
-      <c r="B28" t="s">
-        <v>477</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="35.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="63" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" tabRatio="825" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" tabRatio="825" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="元素点击详情" sheetId="13" r:id="rId1"/>
@@ -15,9 +15,9 @@
     <sheet name="赞助" sheetId="12" r:id="rId6"/>
     <sheet name="空气指数详情" sheetId="11" r:id="rId7"/>
     <sheet name="出行提醒" sheetId="10" r:id="rId8"/>
-    <sheet name="天气数据" sheetId="1" r:id="rId9"/>
-    <sheet name="提醒安卓" sheetId="8" r:id="rId10"/>
-    <sheet name="提醒页说明" sheetId="18" r:id="rId11"/>
+    <sheet name="提醒页说明" sheetId="18" r:id="rId9"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId10"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId11"/>
     <sheet name="提醒ios" sheetId="5" r:id="rId12"/>
     <sheet name="backup" sheetId="2" r:id="rId13"/>
     <sheet name="分享文字" sheetId="7" r:id="rId14"/>
@@ -5054,6 +5054,204 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5187,81 +5385,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>483</v>
-      </c>
-      <c r="B4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7628,194 +7751,71 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>483</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>488</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="495">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1929,10 +1929,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建议设置为您早上出门前的时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1974,6 +1970,26 @@
   </si>
   <si>
     <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日温度超过35°时提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日风力超过6级时提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7751,10 +7767,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7767,31 +7783,31 @@
         <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" t="s">
         <v>479</v>
-      </c>
-      <c r="B2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" t="s">
         <v>481</v>
-      </c>
-      <c r="B3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" t="s">
         <v>483</v>
-      </c>
-      <c r="B4" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7799,23 +7815,39 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" t="s">
         <v>486</v>
-      </c>
-      <c r="B6" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" t="s">
         <v>488</v>
       </c>
-      <c r="B7" t="s">
-        <v>489</v>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" tabRatio="825" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7740" tabRatio="825" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="元素点击详情" sheetId="13" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId17"/>
     <sheet name="Sheet1" sheetId="16" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="502">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,9 +658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>气温最高XX度，请注意防暑!</t>
-  </si>
-  <si>
     <t>温度骤降！请注意加衣保暖！</t>
   </si>
   <si>
@@ -912,23 +909,6 @@
   </si>
   <si>
     <t>温度计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>XX转XX，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建议您带伞出行！</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1192,10 +1172,6 @@
   </si>
   <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=外套女冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=大衣 女 外套 秋冬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1500,10 +1476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短时雷雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>偶有阵雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1528,14 +1500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今夜上海月朗星稀，您可以无忧出行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今夜上海阴云密布，您可以无忧出行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无忧出行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1560,10 +1524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>漫天白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴雪来袭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1580,18 +1540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最好不要外出，注意关好门窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意避暑，多喝水，心静自然凉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请注意加衣保暖，谨防感冒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最好带着口罩出门，开车时要格外小心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1604,14 +1552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还是带伞出门吧，如果运气不好会被淋死的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带上伞，如果变天了，最好不要出门，冰雹伤不起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不一定有雨，但最好还是带把伞，以防万一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1620,18 +1560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最好还是带把伞，小雨有可能变中雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记得带伞出门哦；雨落如线，洼地积水较快；最好穿防水鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最好少出门，大雨哗哗的，打伞也会一身湿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你的城市有可能被淹，打伞也没用了，尽量别出门吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1649,10 +1577,6 @@
   </si>
   <si>
     <t>雪很大，如果外出不打伞，10分钟会变成雪人~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定要带伞哦，另外交通可能会很堵，尽量错峰吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1945,51 +1869,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中度污染及以上时提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及时告知气象局发布的天气预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼夜温差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日温差超过10°时提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日温度超过35°时提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日风力超过6级时提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>今日比昨日降温超过5°时提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中度污染及以上时提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气象预警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>及时告知气象局发布的天气预警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昼夜温差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日温差超过10°时提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高温提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大风预警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日温度超过35°时提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日风力超过6级时提醒</t>
+    <t>今日最低温度比昨日最低温度平均值降低5度以上,且温度小于等于15度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度骤降！请注意加衣保暖！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温最高XX度，请注意防暑!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有强风，请尽量减少外出!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XX转XX，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议您带伞出行！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=大衣 女 外套 秋冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定要带伞哦，另外交通可能会很堵，尽量错峰吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一定有雪，但最好还是带把伞吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫天白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短时雷雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是带伞出门吧，如果运气不好会被淋死的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光充足，空气质量也不错，多出门走走吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴晴不定，空气质量不错，出门没什么好担心的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴云密布，但空气还算不错，出门没什么好担心的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好带上伞，如果变天了，最好不要出门，冰雹伤不起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然雨丝很细，但最好还是带把伞，小雨有可能变中雨哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得带伞出门哦；雨落如线，洼地积水较快；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定要带伞出门哦，大雨哗哗的；最好穿防水鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月朗星稀，空气清新，适合饭后出来散散步哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云层较厚，月光较弱，但空气不错，可以无忧出行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好不要外出，注意关好门窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意避暑，多喝水，心静自然凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请注意加衣保暖，谨防感冒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2167,7 +2196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2239,6 +2268,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4979,87 +5011,87 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
         <v>337</v>
-      </c>
-      <c r="C5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C9" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5166,7 +5198,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -5177,10 +5209,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5246,7 +5278,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5271,7 +5303,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5287,114 +5319,114 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>234</v>
+        <v>483</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5409,7 +5441,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5422,62 +5454,62 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>162</v>
+        <v>481</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>163</v>
+        <v>480</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1">
       <c r="C5" s="8" t="s">
-        <v>164</v>
+        <v>482</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1">
       <c r="C6" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5550,85 +5582,85 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5657,31 +5689,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5706,227 +5738,227 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B14" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B15" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B16" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B17" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B19" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B20" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B21" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B22" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B23" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B25" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B26" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B27" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B28" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -5950,7 +5982,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5958,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5966,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5974,7 +6006,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5982,7 +6014,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5990,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5998,7 +6030,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6006,7 +6038,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6014,7 +6046,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6022,7 +6054,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6030,7 +6062,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6038,7 +6070,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6046,7 +6078,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6054,7 +6086,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -6176,8 +6208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6201,7 +6233,7 @@
         <v>90</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6212,18 +6244,18 @@
         <v>92</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>393</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>210</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>394</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6234,15 +6266,15 @@
         <v>93</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="11" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>356</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6250,23 +6282,23 @@
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>356</v>
+      <c r="F7" s="25" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="D8" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6283,10 +6315,10 @@
         <v>47</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>397</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6303,10 +6335,10 @@
         <v>47</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>397</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6323,10 +6355,10 @@
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>397</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6340,13 +6372,13 @@
         <v>105</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6360,13 +6392,13 @@
         <v>109</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>373</v>
+        <v>488</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>399</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25">
@@ -6380,13 +6412,13 @@
         <v>112</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>400</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6400,13 +6432,13 @@
         <v>115</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6420,13 +6452,13 @@
         <v>117</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>403</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6440,13 +6472,13 @@
         <v>119</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>404</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6460,13 +6492,13 @@
         <v>121</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>405</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6480,13 +6512,13 @@
         <v>123</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6500,13 +6532,13 @@
         <v>88</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>407</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6520,13 +6552,13 @@
         <v>126</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6540,13 +6572,13 @@
         <v>128</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6560,13 +6592,13 @@
         <v>130</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>388</v>
+        <v>487</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6580,13 +6612,13 @@
         <v>132</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6594,19 +6626,19 @@
         <v>78</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6620,13 +6652,13 @@
         <v>138</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6643,10 +6675,10 @@
         <v>141</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6657,13 +6689,13 @@
         <v>142</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6680,10 +6712,10 @@
         <v>146</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6700,10 +6732,10 @@
         <v>47</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>380</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6717,13 +6749,13 @@
         <v>150</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>381</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6740,15 +6772,15 @@
         <v>135</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>153</v>
@@ -6760,10 +6792,10 @@
         <v>106</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6777,13 +6809,13 @@
         <v>156</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6800,10 +6832,10 @@
         <v>146</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6820,10 +6852,10 @@
         <v>141</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6831,10 +6863,10 @@
         <v>161</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6860,33 +6892,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -6915,10 +6947,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="E1" s="22"/>
     </row>
@@ -6930,7 +6962,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6941,10 +6973,10 @@
         <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6956,10 +6988,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6971,7 +7003,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6983,7 +7015,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
@@ -6995,7 +7027,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="24"/>
     </row>
@@ -7008,7 +7040,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7020,7 +7052,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7032,7 +7064,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7044,7 +7076,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7055,7 +7087,7 @@
         <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7066,7 +7098,7 @@
         <v>124</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7077,7 +7109,7 @@
         <v>125</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7088,7 +7120,7 @@
         <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7099,7 +7131,7 @@
         <v>129</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7110,7 +7142,7 @@
         <v>131</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7121,7 +7153,7 @@
         <v>133</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7132,7 +7164,7 @@
         <v>137</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7143,7 +7175,7 @@
         <v>139</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7154,7 +7186,7 @@
         <v>142</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7165,7 +7197,7 @@
         <v>144</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7176,10 +7208,10 @@
         <v>147</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7190,10 +7222,10 @@
         <v>149</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7204,10 +7236,10 @@
         <v>151</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7218,10 +7250,10 @@
         <v>153</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7232,7 +7264,7 @@
         <v>155</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7243,7 +7275,7 @@
         <v>157</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7254,7 +7286,7 @@
         <v>159</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7262,7 +7294,7 @@
         <v>161</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7286,37 +7318,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -7340,15 +7372,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -7356,7 +7388,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -7364,7 +7396,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -7372,7 +7404,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -7389,7 +7421,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7399,12 +7431,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -7418,7 +7450,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -7432,7 +7464,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -7446,7 +7478,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -7460,13 +7492,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -7474,21 +7506,21 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -7503,7 +7535,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7514,211 +7546,211 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>301</v>
+        <v>484</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -7769,8 +7801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7780,34 +7812,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7815,39 +7847,39 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="506">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -547,10 +547,6 @@
   </si>
   <si>
     <t>fog day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雾气笼罩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1360,10 +1356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软风（烟示风向）风速：0.3-1.5m/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轻风（感觉有风）风速：1.6-3.3m/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1529,10 +1521,6 @@
   </si>
   <si>
     <t>冻雨降临</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雾霾笼罩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1994,10 +1982,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>记得带伞出门哦；雨落如线，洼地积水较快；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一定要带伞出门哦，大雨哗哗的；最好穿防水鞋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2019,6 +2003,56 @@
   </si>
   <si>
     <t>请注意加衣保暖，谨防感冒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软风（烟示风向）风速：0.3-1.5m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾气笼罩</t>
+  </si>
+  <si>
+    <t>雾气笼罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建议减少户外活动，外出时佩戴口罩，敏感人群应留在室内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外出时佩戴口罩，敏感人群应留在室内。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议避免外出，敏感人群应留在室内，关好门窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议减少户外活动，外出时佩戴口罩，敏感人群应尽量避免外出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏感人群症状易加剧，应尽量避免高强度户外锻炼，外出时做好防护措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得带伞出门哦；雨落如线，洼地积水较快</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5011,87 +5045,87 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5198,7 +5232,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -5209,10 +5243,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
         <v>245</v>
-      </c>
-      <c r="C11" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5278,7 +5312,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5319,114 +5353,114 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5454,62 +5488,62 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1">
       <c r="C5" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1">
       <c r="C6" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5582,85 +5616,85 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5689,31 +5723,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5738,227 +5772,227 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B15" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B20" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B24" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B26" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B27" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>453</v>
+      </c>
+      <c r="B28" t="s">
         <v>456</v>
-      </c>
-      <c r="B28" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -5972,7 +6006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5982,7 +6018,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5990,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5998,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6006,7 +6042,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6014,7 +6050,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6022,7 +6058,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6030,7 +6066,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6038,7 +6074,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6046,7 +6082,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6054,7 +6090,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6062,7 +6098,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6070,7 +6106,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6078,7 +6114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6086,7 +6122,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -6209,7 +6245,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6233,7 +6269,7 @@
         <v>90</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6244,18 +6280,18 @@
         <v>92</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>209</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6266,15 +6302,15 @@
         <v>93</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6282,7 +6318,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>315</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6290,15 +6326,15 @@
         <v>19</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>316</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="D8" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>317</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6315,10 +6351,10 @@
         <v>47</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6335,10 +6371,10 @@
         <v>47</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6355,10 +6391,10 @@
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6372,13 +6408,13 @@
         <v>105</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6392,13 +6428,13 @@
         <v>109</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25">
@@ -6412,13 +6448,13 @@
         <v>112</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6432,13 +6468,13 @@
         <v>115</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6452,13 +6488,13 @@
         <v>117</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6472,13 +6508,13 @@
         <v>119</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6492,13 +6528,13 @@
         <v>121</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6512,13 +6548,13 @@
         <v>123</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6532,13 +6568,13 @@
         <v>88</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6552,13 +6588,13 @@
         <v>126</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6572,13 +6608,13 @@
         <v>128</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6592,13 +6628,13 @@
         <v>130</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6612,13 +6648,13 @@
         <v>132</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6626,39 +6662,39 @@
         <v>78</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>384</v>
+        <v>499</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6666,19 +6702,19 @@
         <v>79</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>141</v>
-      </c>
       <c r="E28" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6686,36 +6722,36 @@
         <v>80</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="E30" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6723,19 +6759,19 @@
         <v>81</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>47</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6743,19 +6779,19 @@
         <v>82</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="D32" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6763,39 +6799,39 @@
         <v>83</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="D33" s="11" t="s">
-        <v>135</v>
+        <v>500</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6803,19 +6839,19 @@
         <v>85</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>156</v>
-      </c>
       <c r="D35" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6823,19 +6859,19 @@
         <v>86</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="D36" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6843,30 +6879,30 @@
         <v>87</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="D37" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -6892,33 +6928,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6947,10 +6983,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="E1" s="22"/>
     </row>
@@ -6962,7 +6998,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6973,10 +7009,10 @@
         <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6988,10 +7024,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7003,7 +7039,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7015,7 +7051,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
@@ -7027,7 +7063,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="24"/>
     </row>
@@ -7040,7 +7076,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7052,7 +7088,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7064,7 +7100,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7076,7 +7112,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7087,7 +7123,7 @@
         <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7098,7 +7134,7 @@
         <v>124</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7109,7 +7145,7 @@
         <v>125</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7120,7 +7156,7 @@
         <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7131,7 +7167,7 @@
         <v>129</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7142,7 +7178,7 @@
         <v>131</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7153,18 +7189,18 @@
         <v>133</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7172,10 +7208,10 @@
         <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7183,21 +7219,21 @@
         <v>80</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7205,13 +7241,13 @@
         <v>81</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7219,13 +7255,13 @@
         <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7233,13 +7269,13 @@
         <v>83</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7247,13 +7283,13 @@
         <v>84</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7261,10 +7297,10 @@
         <v>85</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7272,10 +7308,10 @@
         <v>86</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7283,18 +7319,18 @@
         <v>87</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -7318,37 +7354,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -7372,15 +7408,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -7388,7 +7424,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -7396,7 +7432,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -7404,7 +7440,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -7431,12 +7467,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -7450,7 +7486,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -7464,7 +7500,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -7478,7 +7514,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -7492,13 +7528,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -7506,21 +7542,21 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
         <v>245</v>
-      </c>
-      <c r="D7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7546,211 +7582,211 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
         <v>255</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>288</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -7812,34 +7848,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7847,39 +7883,39 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7740" tabRatio="825" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7740" tabRatio="825"/>
   </bookViews>
   <sheets>
     <sheet name="元素点击详情" sheetId="13" r:id="rId1"/>
     <sheet name="大字" sheetId="4" r:id="rId2"/>
-    <sheet name="明日预报" sheetId="15" r:id="rId3"/>
-    <sheet name="天气变色" sheetId="6" r:id="rId4"/>
-    <sheet name="背景图" sheetId="9" r:id="rId5"/>
-    <sheet name="赞助" sheetId="12" r:id="rId6"/>
-    <sheet name="空气指数详情" sheetId="11" r:id="rId7"/>
-    <sheet name="出行提醒" sheetId="10" r:id="rId8"/>
-    <sheet name="提醒页说明" sheetId="18" r:id="rId9"/>
-    <sheet name="天气数据" sheetId="1" r:id="rId10"/>
-    <sheet name="提醒安卓" sheetId="8" r:id="rId11"/>
-    <sheet name="提醒ios" sheetId="5" r:id="rId12"/>
-    <sheet name="backup" sheetId="2" r:id="rId13"/>
+    <sheet name="天气变色" sheetId="6" r:id="rId3"/>
+    <sheet name="空气指数详情" sheetId="11" r:id="rId4"/>
+    <sheet name="backup" sheetId="2" r:id="rId5"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId6"/>
+    <sheet name="出行提醒" sheetId="10" r:id="rId7"/>
+    <sheet name="明日预报" sheetId="15" r:id="rId8"/>
+    <sheet name="背景图" sheetId="9" r:id="rId9"/>
+    <sheet name="提醒页说明" sheetId="18" r:id="rId10"/>
+    <sheet name="赞助" sheetId="12" r:id="rId11"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId12"/>
+    <sheet name="提醒ios" sheetId="5" r:id="rId13"/>
     <sheet name="分享文字" sheetId="7" r:id="rId14"/>
     <sheet name="温度变色" sheetId="17" r:id="rId15"/>
     <sheet name="风力表" sheetId="14" r:id="rId16"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="592">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1238,29 +1238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建议减少户外活动，外出时佩戴口罩，敏感人群应留在室内。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，外出时佩戴口罩，敏感人群应留在室内。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建议避免外出，敏感人群应留在室内，关好门窗。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1289,66 +1266,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空气指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">明日 X；后天 X </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前温度 XX°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东北风 3级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前天气 X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空气 良 /123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见风力详情表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度 30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>风级</t>
   </si>
   <si>
@@ -1400,22 +1325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>见空气指数详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取moji化妆指数详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取moji紫外线指数详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日12~13°/昨日13~23°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认21:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1581,18 +1490,6 @@
   </si>
   <si>
     <t>视线很差，开车时要格外小心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四个大字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取moji今日详情的温馨提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1955,18 +1852,6 @@
   </si>
   <si>
     <t>短时雷雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还是带伞出门吧，如果运气不好会被淋死的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光充足，空气质量也不错，多出门走走吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴晴不定，空气质量不错，出门没什么好担心的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2055,12 +1940,648 @@
     <t>记得带伞出门哦；雨落如线，洼地积水较快</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻风，树叶微有声响，人面感觉有风</t>
+  </si>
+  <si>
+    <t>强风，大树枝摇动，电线有呼呼声，打雨伞行走有困难</t>
+  </si>
+  <si>
+    <t>大风，树的细枝可折断，人迎风行走阻力甚大</t>
+  </si>
+  <si>
+    <t>狂风，陆地少见，可拔起树木，建筑物损害较重</t>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>飓风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，摧毁力极大，陆地少见</t>
+    </r>
+  </si>
+  <si>
+    <t>建议减少户外活动，外出时佩戴口罩，敏感人群应留在室内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选用中性保湿型霜类化妆品</t>
+  </si>
+  <si>
+    <t>保湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选用露质面霜打底，水质无油粉底底霜</t>
+  </si>
+  <si>
+    <t>请选用滋润保湿型化妆品</t>
+  </si>
+  <si>
+    <t>去油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气较热，易出汗，建议使用防脱水化妆品，少用粉底和胭脂，经常补粉</t>
+  </si>
+  <si>
+    <t>防脱水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滋润保湿</t>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光充足，空气质量也不错，多出门走走吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.taobao.com/channel/chn/mobile/tejia_taoke.php?pid=mm_48666731_5796613_21490864</t>
+  </si>
+  <si>
+    <t>tttj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.taobao.com/channel/chn/mobile/tejia_taoke.php?pid=mm_48666731_5796613_21490864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴晴不定，空气质量不错，出门没什么好担心的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是带伞出门吧，如果运气不好会被淋死的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空中云层较多，阳光不很充足，但仍能从云的缝隙中见到青天</t>
+  </si>
+  <si>
+    <t>阳光充足，蓝天白云，多出门走走吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月朗星稀，空气清新，适合饭后出来散散步哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云层较厚，月光较弱，但应该不会下雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳光很少或不能透过云层，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天色阴暗，但应该不会有雨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.taobao.com/channel/chn/mobile/tejia_taoke.php?pid=mm_48666731_5796613_21490865</t>
+  </si>
+  <si>
+    <t>http://m.taobao.com/channel/chn/mobile/tejia_taoke.php?pid=mm_48666731_5796613_21490866</t>
+  </si>
+  <si>
+    <t>http://m.taobao.com/channel/chn/mobile/tejia_taoke.php?pid=mm_48666731_5796613_21490867</t>
+  </si>
+  <si>
+    <t>http://m.taobao.com/channel/chn/mobile/tejia_taoke.php?pid=mm_48666731_5796613_21490868</t>
+  </si>
+  <si>
+    <t>http://m.taobao.com/channel/chn/mobile/tejia_taoke.php?pid=mm_48666731_5796613_21490869</t>
+  </si>
+  <si>
+    <t>http://m.taobao.com/channel/chn/mobile/tejia_taoke.php?pid=mm_48666731_5796613_21490870</t>
+  </si>
+  <si>
+    <t>店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s.click.taobao.com/t?e=m%3D2%26s%3DTQdqFmks7l0cQipKwQzePDAVflQIoZepK7Vc7tFgwiFRAdhuF14FMXE%2BVPNJMMuMJ1gyddu7kN9A%2BX8doPmBknnIzxwNj12tt6YD5qfq5VI7v6DtYGYuYDO6JGraAIz1</t>
+  </si>
+  <si>
+    <t>http://s.click.taobao.com/t?e=m%3D2%26s%3DTQdqFmks7l0cQipKwQzePDAVflQIoZepK7Vc7tFgwiFRAdhuF14FMXE%2BVPNJMMuMJ1gyddu7kN9A%2BX8doPmBknnIzxwNj12tt6YD5qfq5VI7v6DtYGYuYDO6JGraAIz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s.click.taobao.com/t?e=m%3D2%26s%3DuadKdp2SbfAcQipKwQzePDAVflQIoZepK7Vc7tFgwiFRAdhuF14FMcQiR9W9eH65lovu%2FCElQOtA%2BX8doPmBknnIzxwNj12tGyvM3%2Fgsi8j8vVnFdgOB8lMjyRiK4bKq</t>
+  </si>
+  <si>
+    <t>http://s.click.taobao.com/t?e=m%3D2%26s%3DZ19mZ73KGsccQipKwQzePDAVflQIoZepK7Vc7tFgwiFRAdhuF14FMWmMSLimSK0b1aH1Hk3GeOhA%2BX8doPmBknnIzxwNj12tuwH8t7tS7ZqwbMiMG7%2FMu2Ddd5Cwl6bR</t>
+  </si>
+  <si>
+    <t>http://s.click.taobao.com/t?e=m%3D2%26s%3Dco9ho31t71EcQipKwQzePDAVflQIoZepLKpWJ%2Bin0XJRAdhuF14FMbYR%2FHze76M5lovu%2FCElQOtA%2BX8doPmBknnIzxwNj12tSeu9AZBuH0hYmJ1ngqfNTwHWWjdIktbe</t>
+  </si>
+  <si>
+    <t>http://s.click.taobao.com/t?e=m%3D2%26s%3Den8OptHMHNwcQipKwQzePDAVflQIoZepK7Vc7tFgwiFRAdhuF14FMQnP2dBLdps7xq3IhSJN6GRA%2BX8doPmBknnIzxwNj12t%2FeJtcbZ8S3ChL7gQpLQuSEzkX1aJEN%2FZ</t>
+  </si>
+  <si>
+    <t>污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm2.5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气 优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空气指数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>XXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。空气很好，可以外出活动，呼吸新鲜空气。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气 良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气指数XXX。可以正常在户外活动，易敏感人群应减少外出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻度污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气指数XXX。敏感人群症状易加剧，应尽量避免高强度户外锻炼，外出时做好防护措施。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://redirect.simba.taobao.com/rd?w=unionnojs&amp;f=http%3A%2F%2Fre.taobao.com%2Feauction%3Fe%3D%252FFAFrcwUzTvghojqVNxKsQekiqlWP8E%252FEUtHUPud5YyLltG5xFicOSZqewpHPyZz1PKV9ET3H8JS9v9cGtNtBfY9BPoVm3df0SU5qsRyp8iB3ujUJI0OeA%253D%253D%26ptype%3D100010&amp;k=e2e107a2b72ca1b1&amp;c=un&amp;b=alimm_0&amp;p=mm_48666731_5796613_21676538</t>
+  </si>
+  <si>
+    <t>中度污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气指数XXX。建议减少户外活动，外出时佩戴口罩，敏感人群应尽量避免外出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重度污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气指数XXX。建议减少户外活动，外出时佩戴口罩，敏感人群应留在室内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气指数XXX。建议避免外出，敏感人群应留在室内，关好门窗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx风n级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无风，完全感觉不到有风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx风n级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和风，树的小枝摇动，能吹起地面灰尘和纸张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外线XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不需要采取防护措施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若长期在户外，建议涂擦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SPF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>8-12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之间的防晒护肤品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以适当采取一些防护措施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涂擦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SPF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>12-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之间、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的防晒护肤品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外线XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出时戴好遮阳帽、太阳镜和太阳伞等；涂擦SPF高于15、PA+的防晒护肤品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避免在10点至14点暴露于日光下.外出时戴好遮阳帽、太阳镜和太阳伞等，涂擦SPF20左右、PA++的防晒护肤品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s.click.taobao.com/t?e=m%3D2%26s%3DZ19mZ73KGsccQipKwQzePDAVflQIoZepK7Vc7tFgwiFRAdhuF14FMWmMSLimSK0b1aH1Hk3GeOhA%2BX8doPmBknnIzxwNj12tuwH8t7tS7ZqwbMiMG7%2FMu2Ddd5Cwl6bR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽可能不在室外活动，必须外出时，要采取各种有效的防护措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度 XX%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气较干燥，可选用中性保湿型霜类化妆品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度较大，可选用露质面霜打底，水质无油粉底底霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带伞出门吧，雨雪虽然较小，但是打到脸上蛮冷的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：大字详情与天气对应，而不是四个大字（因为有多个无忧出行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static.51juzhai.com/huxi_shopping.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static.51juzhai.com/huxi_shopping.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static.51juzhai.com/mask_shopping.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static.51juzhai.com/wufeng_shopping.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static.51juzhai.com/dafeng_shopping.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static.51juzhai.com/shai_shopping.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static.51juzhai.com/fangshai_shopping.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static.51juzhai.com/baoshi_shopping.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static.51juzhai.com/quyou_shopping.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2159,6 +2680,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体-繁"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2230,7 +2811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2280,9 +2861,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2305,6 +2883,69 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5031,299 +5672,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="45.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="32"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="B1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" t="s">
-        <v>399</v>
-      </c>
+    <row r="2" spans="1:5" s="3" customFormat="1">
+      <c r="A2" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1">
+      <c r="A10" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="32">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
+      <c r="A14" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25">
+      <c r="A16" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1">
+      <c r="A19" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5">
+      <c r="A20" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>564</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>572</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5">
+      <c r="C25" s="34"/>
+      <c r="E25" s="36"/>
+    </row>
+    <row r="26" spans="1:5" s="3" customFormat="1">
+      <c r="A26" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="E29" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>446</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -5334,10 +6189,69 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5382,7 +6296,7 @@
         <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>224</v>
@@ -5470,12 +6384,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5516,7 +6430,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="D3" t="s">
         <v>167</v>
@@ -5524,15 +6438,15 @@
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1">
       <c r="C5" s="8" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>169</v>
@@ -5544,157 +6458,6 @@
       </c>
       <c r="D6" s="8" t="s">
         <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5723,31 +6486,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C1" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5772,227 +6535,227 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D1" s="22"/>
+        <v>412</v>
+      </c>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="20" t="s">
-        <v>403</v>
+      <c r="A3" s="19" t="s">
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="B14" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>429</v>
+        <v>398</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B19" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="B21" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="B22" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="B24" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B27" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="B28" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -6012,117 +6775,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6" style="20" customWidth="1"/>
+    <col min="1" max="1" width="6" style="19" customWidth="1"/>
     <col min="2" max="2" width="61.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
-      <c r="A1" s="19" t="s">
-        <v>338</v>
+      <c r="A1" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -6244,8 +7007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6280,7 +7043,7 @@
         <v>92</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6291,7 +7054,7 @@
         <v>208</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6302,15 +7065,15 @@
         <v>93</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="11" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6318,15 +7081,15 @@
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>501</v>
+      <c r="F7" s="24" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6334,7 +7097,12 @@
         <v>245</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>502</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25">
+      <c r="F9" s="45" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6353,8 +7121,8 @@
       <c r="E10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>487</v>
+      <c r="F10" s="20" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6373,8 +7141,8 @@
       <c r="E11" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>488</v>
+      <c r="F11" s="20" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6393,8 +7161,8 @@
       <c r="E12" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>489</v>
+      <c r="F12" s="20" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6408,13 +7176,13 @@
         <v>105</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>239</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6428,13 +7196,13 @@
         <v>109</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>239</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25">
@@ -6448,13 +7216,13 @@
         <v>112</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>239</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6468,13 +7236,13 @@
         <v>115</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>240</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>387</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6488,13 +7256,13 @@
         <v>117</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>241</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6508,13 +7276,13 @@
         <v>119</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>239</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6528,13 +7296,13 @@
         <v>121</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>239</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6548,13 +7316,13 @@
         <v>123</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>239</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6568,13 +7336,13 @@
         <v>88</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>237</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6588,13 +7356,13 @@
         <v>126</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>237</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6608,13 +7376,13 @@
         <v>128</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>237</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6628,13 +7396,13 @@
         <v>130</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>237</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6648,13 +7416,13 @@
         <v>132</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>237</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6668,13 +7436,13 @@
         <v>134</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>237</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6688,13 +7456,13 @@
         <v>137</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>239</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6714,7 +7482,7 @@
         <v>237</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6731,7 +7499,7 @@
         <v>237</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6751,7 +7519,7 @@
         <v>237</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6770,8 +7538,8 @@
       <c r="E31" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>493</v>
+      <c r="F31" s="20" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6785,13 +7553,13 @@
         <v>149</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>494</v>
+      <c r="F32" s="20" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6805,13 +7573,13 @@
         <v>151</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>237</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6831,7 +7599,7 @@
         <v>239</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6845,13 +7613,13 @@
         <v>155</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>237</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6871,7 +7639,7 @@
         <v>237</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6891,7 +7659,7 @@
         <v>237</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6901,8 +7669,8 @@
       <c r="D39" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>384</v>
+      <c r="F39" s="20" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -6913,6 +7681,1611 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="22"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="C18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>493</v>
+      </c>
+      <c r="B23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>496</v>
+      </c>
+      <c r="B24" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>498</v>
+      </c>
+      <c r="B26" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="3" customFormat="1">
+      <c r="A28" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="27" customFormat="1">
+      <c r="A29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="1:5" s="27" customFormat="1" ht="14.25">
+      <c r="A30" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="1:5" s="27" customFormat="1" ht="14.25">
+      <c r="A31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" spans="1:5" s="27" customFormat="1">
+      <c r="A32" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1">
+      <c r="A33" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="14.25">
+      <c r="A34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1">
+      <c r="A35" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1">
+      <c r="A36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1">
+      <c r="A37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="27" customFormat="1">
+      <c r="A38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" spans="1:5" s="27" customFormat="1">
+      <c r="A39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E39" s="28"/>
+    </row>
+    <row r="40" spans="1:5" s="27" customFormat="1">
+      <c r="A40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" spans="1:5" s="27" customFormat="1">
+      <c r="A41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1">
+      <c r="A42" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1">
+      <c r="A43" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1">
+      <c r="A44" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1">
+      <c r="A45" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" s="27" customFormat="1">
+      <c r="A46" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E46" s="28"/>
+    </row>
+    <row r="47" spans="1:5" s="27" customFormat="1">
+      <c r="A47" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" s="27" customFormat="1">
+      <c r="A48" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" spans="1:5" s="27" customFormat="1">
+      <c r="A49" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1">
+      <c r="A50" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1">
+      <c r="A51" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1">
+      <c r="A52" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1">
+      <c r="A53" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1">
+      <c r="A54" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="27" customFormat="1">
+      <c r="A55" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56" spans="1:5" s="27" customFormat="1">
+      <c r="A56" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E56" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="78.625" customWidth="1"/>
+    <col min="4" max="4" width="53.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" t="s">
+        <v>524</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>503</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D12" r:id="rId10"/>
+    <hyperlink ref="D13" r:id="rId11"/>
+    <hyperlink ref="D14" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="D17" r:id="rId15"/>
+    <hyperlink ref="D18" r:id="rId16"/>
+    <hyperlink ref="D19" r:id="rId17"/>
+    <hyperlink ref="C2" r:id="rId18"/>
+    <hyperlink ref="C3" r:id="rId19"/>
+    <hyperlink ref="C4" r:id="rId20"/>
+    <hyperlink ref="C5:C19" r:id="rId21" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q="/>
+    <hyperlink ref="C5" r:id="rId22"/>
+    <hyperlink ref="C6" r:id="rId23"/>
+    <hyperlink ref="C7" r:id="rId24"/>
+    <hyperlink ref="C8" r:id="rId25"/>
+    <hyperlink ref="C9" r:id="rId26"/>
+    <hyperlink ref="C10" r:id="rId27"/>
+    <hyperlink ref="C11" r:id="rId28"/>
+    <hyperlink ref="C12" r:id="rId29"/>
+    <hyperlink ref="C13" r:id="rId30"/>
+    <hyperlink ref="C14" r:id="rId31"/>
+    <hyperlink ref="C15" r:id="rId32"/>
+    <hyperlink ref="C16" r:id="rId33"/>
+    <hyperlink ref="C17" r:id="rId34"/>
+    <hyperlink ref="C18" r:id="rId35"/>
+    <hyperlink ref="C19" r:id="rId36"/>
+    <hyperlink ref="C22" r:id="rId37"/>
+    <hyperlink ref="B13" r:id="rId38"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6928,33 +9301,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6964,384 +9337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="9" style="23"/>
-    <col min="6" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -7391,535 +9387,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="63" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="78.625" customWidth="1"/>
-    <col min="3" max="3" width="53.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>285</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
-    <hyperlink ref="C18" r:id="rId16"/>
-    <hyperlink ref="C19" r:id="rId17"/>
-    <hyperlink ref="B2" r:id="rId18"/>
-    <hyperlink ref="B3" r:id="rId19"/>
-    <hyperlink ref="B4" r:id="rId20"/>
-    <hyperlink ref="B5:B19" r:id="rId21" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q="/>
-    <hyperlink ref="B5" r:id="rId22"/>
-    <hyperlink ref="B6" r:id="rId23"/>
-    <hyperlink ref="B7" r:id="rId24"/>
-    <hyperlink ref="B8" r:id="rId25"/>
-    <hyperlink ref="B9" r:id="rId26"/>
-    <hyperlink ref="B10" r:id="rId27"/>
-    <hyperlink ref="B11" r:id="rId28"/>
-    <hyperlink ref="B12" r:id="rId29"/>
-    <hyperlink ref="B13" r:id="rId30"/>
-    <hyperlink ref="B14" r:id="rId31"/>
-    <hyperlink ref="B15" r:id="rId32"/>
-    <hyperlink ref="B16" r:id="rId33"/>
-    <hyperlink ref="B17" r:id="rId34"/>
-    <hyperlink ref="B18" r:id="rId35"/>
-    <hyperlink ref="B19" r:id="rId36"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>471</v>
-      </c>
-      <c r="B9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -7,31 +7,32 @@
     <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7740" tabRatio="825"/>
   </bookViews>
   <sheets>
-    <sheet name="元素点击详情" sheetId="13" r:id="rId1"/>
-    <sheet name="大字" sheetId="4" r:id="rId2"/>
-    <sheet name="天气变色" sheetId="6" r:id="rId3"/>
-    <sheet name="空气指数详情" sheetId="11" r:id="rId4"/>
-    <sheet name="backup" sheetId="2" r:id="rId5"/>
-    <sheet name="天气数据" sheetId="1" r:id="rId6"/>
-    <sheet name="出行提醒" sheetId="10" r:id="rId7"/>
-    <sheet name="明日预报" sheetId="15" r:id="rId8"/>
-    <sheet name="背景图" sheetId="9" r:id="rId9"/>
-    <sheet name="提醒页说明" sheetId="18" r:id="rId10"/>
-    <sheet name="赞助" sheetId="12" r:id="rId11"/>
-    <sheet name="提醒安卓" sheetId="8" r:id="rId12"/>
-    <sheet name="提醒ios" sheetId="5" r:id="rId13"/>
-    <sheet name="分享文字" sheetId="7" r:id="rId14"/>
-    <sheet name="温度变色" sheetId="17" r:id="rId15"/>
-    <sheet name="风力表" sheetId="14" r:id="rId16"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId17"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId18"/>
+    <sheet name="出行提醒男" sheetId="19" r:id="rId1"/>
+    <sheet name="元素点击详情" sheetId="13" r:id="rId2"/>
+    <sheet name="大字" sheetId="4" r:id="rId3"/>
+    <sheet name="天气变色" sheetId="6" r:id="rId4"/>
+    <sheet name="空气指数详情" sheetId="11" r:id="rId5"/>
+    <sheet name="backup" sheetId="2" r:id="rId6"/>
+    <sheet name="天气数据" sheetId="1" r:id="rId7"/>
+    <sheet name="出行提醒女" sheetId="10" r:id="rId8"/>
+    <sheet name="明日预报" sheetId="15" r:id="rId9"/>
+    <sheet name="背景图" sheetId="9" r:id="rId10"/>
+    <sheet name="提醒页说明" sheetId="18" r:id="rId11"/>
+    <sheet name="赞助" sheetId="12" r:id="rId12"/>
+    <sheet name="提醒安卓" sheetId="8" r:id="rId13"/>
+    <sheet name="提醒ios" sheetId="5" r:id="rId14"/>
+    <sheet name="分享文字" sheetId="7" r:id="rId15"/>
+    <sheet name="温度变色" sheetId="17" r:id="rId16"/>
+    <sheet name="风力表" sheetId="14" r:id="rId17"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="626">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2574,6 +2575,141 @@
   </si>
   <si>
     <t>淘宝链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=短袖男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=薄外套 男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=毛衣 男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=大衣男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=冬装外套男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=短裤男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长裤男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=凉鞋男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=板鞋男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=冬鞋男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=墨镜男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=保湿霜男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=去油男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=男保湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=男补水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=口罩pm2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s8.etao.com/search?q=短袖男</t>
+  </si>
+  <si>
+    <t>http://s9.etao.com/search?q=长袖衬衫男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长袖衬衫男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s10.etao.com/search?q=薄外套男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s11.etao.com/search?q=毛衣男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s12.etao.com/search?q=大衣男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s13.etao.com/search?q=棉袄男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s14.etao.com/search?q=短库男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s15.etao.com/search?q=长裤男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s16.etao.com/search?q=凉鞋男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s17.etao.com/search?q=板鞋男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s18.etao.com/search?q=冬鞋男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s19.etao.com/search?q=墨镜男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s20.etao.com/search?q=保湿男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://s21.etao.com/search?q=去油男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5672,431 +5808,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="32"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="3" max="3" width="79.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="3" customFormat="1">
-      <c r="A2" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1">
-      <c r="A10" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="32">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>484</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25">
-      <c r="A14" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25">
-      <c r="A16" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1">
-      <c r="A19" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="32" t="s">
-        <v>560</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>562</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5">
-      <c r="A21" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>564</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="32" t="s">
-        <v>571</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>572</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5">
-      <c r="C25" s="34"/>
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="1:5" s="3" customFormat="1">
-      <c r="A26" s="26" t="s">
-        <v>573</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="E26" s="43"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="32" t="s">
-        <v>574</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>575</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>575</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="E29" s="36"/>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>608</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5:C19" r:id="rId4" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q="/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="C9" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10"/>
+    <hyperlink ref="C11" r:id="rId11"/>
+    <hyperlink ref="C12" r:id="rId12"/>
+    <hyperlink ref="C13" r:id="rId13"/>
+    <hyperlink ref="C14" r:id="rId14"/>
+    <hyperlink ref="C15" r:id="rId15"/>
+    <hyperlink ref="C16" r:id="rId16"/>
+    <hyperlink ref="C17" r:id="rId17"/>
+    <hyperlink ref="C18" r:id="rId18"/>
+    <hyperlink ref="C19" r:id="rId19"/>
+    <hyperlink ref="B5" r:id="rId20"/>
+    <hyperlink ref="B6" r:id="rId21"/>
+    <hyperlink ref="B7" r:id="rId22"/>
+    <hyperlink ref="B8" r:id="rId23"/>
+    <hyperlink ref="B9" r:id="rId24"/>
+    <hyperlink ref="B10" r:id="rId25"/>
+    <hyperlink ref="B11" r:id="rId26"/>
+    <hyperlink ref="B12" r:id="rId27"/>
+    <hyperlink ref="B13" r:id="rId28"/>
+    <hyperlink ref="B14" r:id="rId29"/>
+    <hyperlink ref="B15" r:id="rId30"/>
+    <hyperlink ref="B16" r:id="rId31"/>
+    <hyperlink ref="B17" r:id="rId32"/>
+    <hyperlink ref="B18" r:id="rId33"/>
+    <hyperlink ref="B19" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -6187,7 +6214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6246,7 +6273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -6384,7 +6411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -6466,7 +6493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -6519,7 +6546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -6765,7 +6792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -6895,7 +6922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6988,7 +7015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7004,6 +7031,432 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="32"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" s="3" customFormat="1">
+      <c r="A2" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1">
+      <c r="A10" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="32">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
+      <c r="A14" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25">
+      <c r="A16" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1">
+      <c r="A19" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5">
+      <c r="A20" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>564</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>572</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5">
+      <c r="C25" s="34"/>
+      <c r="E25" s="36"/>
+    </row>
+    <row r="26" spans="1:5" s="3" customFormat="1">
+      <c r="A26" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="E29" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -7680,7 +8133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -8057,7 +8510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -8171,7 +8624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
@@ -8755,7 +9208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -8953,17 +9406,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="47.75" customWidth="1"/>
     <col min="3" max="3" width="78.625" customWidth="1"/>
     <col min="4" max="4" width="53.75" customWidth="1"/>
   </cols>
@@ -9285,7 +9738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -9335,56 +9788,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="35.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,35 +4,36 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="7935" tabRatio="825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="7935" tabRatio="825" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="出行提醒男" sheetId="1" r:id="rId1"/>
     <sheet name="出行提醒女" sheetId="8" r:id="rId2"/>
     <sheet name="元素点击详情" sheetId="2" r:id="rId3"/>
-    <sheet name="大字" sheetId="3" r:id="rId4"/>
+    <sheet name="大字表" sheetId="20" r:id="rId4"/>
     <sheet name="天气变色" sheetId="4" r:id="rId5"/>
     <sheet name="空气指数详情" sheetId="5" r:id="rId6"/>
     <sheet name="backup" sheetId="6" r:id="rId7"/>
-    <sheet name="天气数据" sheetId="7" r:id="rId8"/>
-    <sheet name="明日预报" sheetId="9" r:id="rId9"/>
-    <sheet name="背景图" sheetId="10" r:id="rId10"/>
-    <sheet name="提醒页说明" sheetId="11" r:id="rId11"/>
-    <sheet name="赞助" sheetId="12" r:id="rId12"/>
-    <sheet name="提醒安卓" sheetId="13" r:id="rId13"/>
-    <sheet name="提醒ios" sheetId="14" r:id="rId14"/>
-    <sheet name="分享文字" sheetId="15" r:id="rId15"/>
-    <sheet name="温度变色" sheetId="16" r:id="rId16"/>
-    <sheet name="风力表" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId18"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId19"/>
+    <sheet name="大字" sheetId="3" r:id="rId8"/>
+    <sheet name="天气数据" sheetId="7" r:id="rId9"/>
+    <sheet name="明日预报" sheetId="9" r:id="rId10"/>
+    <sheet name="背景图" sheetId="10" r:id="rId11"/>
+    <sheet name="提醒页说明" sheetId="11" r:id="rId12"/>
+    <sheet name="赞助" sheetId="12" r:id="rId13"/>
+    <sheet name="提醒安卓" sheetId="13" r:id="rId14"/>
+    <sheet name="提醒ios" sheetId="14" r:id="rId15"/>
+    <sheet name="分享文字" sheetId="15" r:id="rId16"/>
+    <sheet name="温度变色" sheetId="16" r:id="rId17"/>
+    <sheet name="风力表" sheetId="17" r:id="rId18"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="633">
   <si>
     <t>项目</t>
   </si>
@@ -2106,12 +2107,188 @@
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e6%8e%a7%e6%b2%b9+%e5%a5%b3</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议减少户外活动，外出时佩戴口罩，敏感人群应留在室内</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>除以上情况</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>w1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>w2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>w30</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>w31</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>w0</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥300</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>200~300</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>150~200</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~150</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注条件</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>dflx</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>jrgw</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdzj</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>qdwr100</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>zdwr150</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>zdwr200</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzwr300</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>oyzy</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsly</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>zybb</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyjx</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>xymm</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>zyjl</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyqp</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>bylx</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>oyjx</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxxx</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>xhff</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtbx</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>bxlx</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyjl</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>scxi</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>wqlz</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>tflx</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcfy</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>oyzy</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>oyzx</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcfy</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>scxj</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2265,8 +2442,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2297,8 +2481,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2321,6 +2511,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2330,7 +2557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2470,6 +2697,39 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2576,7 +2836,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2644,7 +2904,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2712,7 +2972,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2780,7 +3040,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2984,7 +3244,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3324,7 +3584,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3392,7 +3652,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3596,7 +3856,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3664,7 +3924,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3732,7 +3992,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3800,7 +4060,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3868,7 +4128,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3936,7 +4196,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4072,7 +4332,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4140,7 +4400,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4208,7 +4468,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4276,7 +4536,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4344,7 +4604,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4412,7 +4672,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4548,7 +4808,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4684,7 +4944,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4752,7 +5012,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4820,7 +5080,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4888,7 +5148,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7449,6 +7709,59 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7501,7 +7814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -7594,7 +7907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -7655,7 +7968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -7794,7 +8107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -7878,7 +8191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -7933,7 +8246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -8181,7 +8494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -8312,7 +8625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -8407,28 +8720,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -8783,6 +9079,23 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E29"/>
@@ -9212,679 +9525,536 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18" style="13" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="9" style="13"/>
-    <col min="6" max="6" width="50.25" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="19.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="65.875" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:5" s="50" customFormat="1">
+      <c r="A1" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="C2" s="13" t="s">
+      <c r="C1" s="50" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3" s="13" t="s">
+      <c r="E2" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="B3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="C4" s="13" t="s">
+      <c r="E3" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="D5" s="25" t="s">
+      <c r="E4" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="D6" s="25" t="s">
+      <c r="E5" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="D7" s="25" t="s">
+      <c r="E6" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" s="25" t="s">
+      <c r="D7" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25">
-      <c r="F9" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E8" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>159</v>
+        <v>177</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="13"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="B33" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="C33" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="55"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="14" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="55"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25">
-      <c r="A15" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="14" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="55"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="14" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="55"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F39" s="14" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="56"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>287</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A33:A38"/>
+  </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10968,6 +11138,684 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" activeCellId="9" sqref="D30 D29 D28 D26 D25 D24 D23 D22 D21 D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18" style="13" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13"/>
+    <col min="6" max="6" width="50.25" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25">
+      <c r="F9" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25">
+      <c r="A15" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A34" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11164,57 +12012,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="39.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/weather_ui/对应表.xlsx
+++ b/weather_ui/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="7935" tabRatio="825" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="7935" tabRatio="825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="出行提醒男" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="668">
   <si>
     <t>项目</t>
   </si>
@@ -53,9 +53,6 @@
     <t>口罩</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=口罩pm2.5</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%8f%a3%e7%bd%a9pm2.5</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>http://s8.etao.com/search?q=短袖男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=短袖男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%9f%ad%e8%a2%96%e7%94%b7</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>http://s9.etao.com/search?q=长袖衬衫男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长袖衬衫男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e9%95%bf%e8%a2%96%e8%a1%ac%e8%a1%ab%e7%94%b7</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>http://s10.etao.com/search?q=薄外套男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=薄外套 男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e8%96%84%e5%a4%96%e5%a5%97+%e7%94%b7</t>
   </si>
   <si>
@@ -101,9 +89,6 @@
     <t>http://s11.etao.com/search?q=毛衣男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=毛衣 男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e6%af%9b%e8%a1%a3+%e7%94%b7</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>http://s12.etao.com/search?q=大衣男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=大衣男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%a4%a7%e8%a1%a3%e7%94%b7</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
     <t>http://s13.etao.com/search?q=棉袄男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=冬装外套男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%86%ac%e8%a3%85%e5%a4%96%e5%a5%97%e7%94%b7</t>
   </si>
   <si>
@@ -137,9 +116,6 @@
     <t>http://s14.etao.com/search?q=短库男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=短裤男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%9f%ad%e8%a3%a4%e7%94%b7</t>
   </si>
   <si>
@@ -149,9 +125,6 @@
     <t>http://s15.etao.com/search?q=长裤男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长裤男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e9%95%bf%e8%a3%a4%e7%94%b7</t>
   </si>
   <si>
@@ -161,9 +134,6 @@
     <t>http://s16.etao.com/search?q=凉鞋男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=凉鞋男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%87%89%e9%9e%8b%e7%94%b7</t>
   </si>
   <si>
@@ -173,9 +143,6 @@
     <t>http://s17.etao.com/search?q=板鞋男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=板鞋男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e6%9d%bf%e9%9e%8b%e7%94%b7</t>
   </si>
   <si>
@@ -185,9 +152,6 @@
     <t>http://s18.etao.com/search?q=冬鞋男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=冬鞋男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%86%ac%e9%9e%8b%e7%94%b7</t>
   </si>
   <si>
@@ -197,9 +161,6 @@
     <t>http://s19.etao.com/search?q=墨镜男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=墨镜男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%a2%a8%e9%95%9c%e7%94%b7</t>
   </si>
   <si>
@@ -209,9 +170,6 @@
     <t>http://s20.etao.com/search?q=保湿男</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=保湿霜男</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e4%bf%9d%e6%b9%bf%e9%9c%9c%e7%94%b7</t>
   </si>
   <si>
@@ -224,16 +182,10 @@
     <t>滋润保湿</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=男保湿</t>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%94%b7%e4%bf%9d%e6%b9%bf</t>
   </si>
   <si>
     <t>防脱水</t>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=男补水</t>
   </si>
   <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%94%b7%e8%a1%a5%e6%b0%b4</t>
@@ -1465,79 +1417,43 @@
     <t>http://m.meilishuo.com/search/?keyword=伞</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=口罩</t>
-  </si>
-  <si>
     <t>http://m.meilishuo.com/search/?keyword=口罩</t>
   </si>
   <si>
     <t>http://s.click.taobao.com/t?e=m%3D2%26s%3DuadKdp2SbfAcQipKwQzePDAVflQIoZepK7Vc7tFgwiFRAdhuF14FMcQiR9W9eH65lovu%2FCElQOtA%2BX8doPmBknnIzxwNj12tGyvM3%2Fgsi8j8vVnFdgOB8lMjyRiK4bKq</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=女装夏装</t>
-  </si>
-  <si>
     <t>http://m.meilishuo.com/search/?keyword=夏装 短袖</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长袖t恤女款</t>
-  </si>
-  <si>
     <t>http://m.meilishuo.com/guang/catalog/?nid=2299&amp;pnid=2261</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=薄外套女春秋薄</t>
-  </si>
-  <si>
     <t>http://m.meilishuo.com/guang/catalog/?nid=2311&amp;pnid=2261</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=毛衣开衫</t>
-  </si>
-  <si>
     <t>http://m.meilishuo.com/search/?keyword=毛衣</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=大衣 女 外套 秋冬</t>
-  </si>
-  <si>
     <t>http://m.meilishuo.com/search/?keyword=外套 秋冬</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=外套女冬</t>
-  </si>
-  <si>
     <t>http://m.meilishuo.com/search/?keyword=外套 冬</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=夏季裤裙</t>
-  </si>
-  <si>
     <t>http://m.meilishuo.com/search/?keyword=短裤</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长裤秋冬</t>
-  </si>
-  <si>
     <t>http://m.meilishuo.com/guang/catalog/?nid=2341&amp;pnid=2265</t>
   </si>
   <si>
     <t>http://s.click.taobao.com/t?e=m%3D2%26s%3DTQdqFmks7l0cQipKwQzePDAVflQIoZepK7Vc7tFgwiFRAdhuF14FMXE%2BVPNJMMuMJ1gyddu7kN9A%2BX8doPmBknnIzxwNj12tt6YD5qfq5VI7v6DtYGYuYDO6JGraAIz1</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=凉鞋</t>
-  </si>
-  <si>
     <t>http://m.meilishuo.com/guang/catalog/?nid=2285&amp;pnid=2259</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=单鞋</t>
-  </si>
-  <si>
     <t>http://m.meilishuo.com/guang/catalog/?nid=2275&amp;pnid=2259</t>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=冬靴</t>
   </si>
   <si>
     <t>http://m.meilishuo.com/guang/catalog/?nid=2757&amp;pnid=13</t>
@@ -2052,22 +1968,10 @@
     <t>洗车指数  其他</t>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=补水保湿</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>图片链接</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=控油男</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=伞男</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e4%bc%9e%e7%94%b7</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -2076,34 +1980,18 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=伞女</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e4%bc%9e%e5%a5%b3</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=墨镜女</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%a2%a8%e9%95%9c%e5%a5%b3</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=补水保湿</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e8%a1%a5%e6%b0%b4%e4%bf%9d%e6%b9%bf</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=控油 女</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e6%8e%a7%e6%b2%b9+%e5%a5%b3</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -2282,13 +2170,294 @@
   <si>
     <t>scxj</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23006794&amp;q=口罩pm2.5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23012760&amp;q=短袖男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://r.m.taobao.com/s?p=mm_48666731_4356013_14608033&amp;q=伞
+</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14608033&amp;q=伞</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14608188&amp;q=口罩</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14604225&amp;q=长袖t恤女款</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14616217&amp;q=女装夏装</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14602228&amp;q=薄外套女春秋薄</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14622198&amp;q=毛衣开衫</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14616218&amp;q=大衣 女 外套 秋冬</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14622199&amp;q=外套女冬</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14602230&amp;q=夏季裤裙</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14604229&amp;q=长裤秋冬</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14620190&amp;q=凉鞋</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14668992&amp;q=单鞋</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14612201&amp;q=冬靴</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23012783&amp;q=墨镜女</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23008813&amp;q=补水保湿</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23016773&amp;q=控油 女</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23004847&amp;q=伞男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23020703&amp;q=长袖衬衫男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23020706&amp;q=薄外套 男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23002919&amp;q=毛衣 男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23006815&amp;q=大衣男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23010853&amp;q=冬装外套男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23012792&amp;q=短裤男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23018769&amp;q=长裤男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23002921&amp;q=凉鞋男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23018771&amp;q=板鞋男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23008820&amp;q=冬鞋男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23018773&amp;q=墨镜男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23012797&amp;q=保湿霜男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23016785&amp;q=控油男</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23016787&amp;q=男保湿</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23006819&amp;q=男补水</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23004847&amp;q=%e4%bc%9e%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23006794&amp;q=%e5%8f%a3%e7%bd%a9pm2.5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23012760&amp;q=%e7%9f%ad%e8%a2%96%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23020703&amp;q=%e9%95%bf%e8%a2%96%e8%a1%ac%e8%a1%ab%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23020706&amp;q=%e8%96%84%e5%a4%96%e5%a5%97+%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23002919&amp;q=%e6%af%9b%e8%a1%a3+%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23006815&amp;q=%e5%a4%a7%e8%a1%a3%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23010853&amp;q=%e5%86%ac%e8%a3%85%e5%a4%96%e5%a5%97%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23012792&amp;q=%e7%9f%ad%e8%a3%a4%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23018769&amp;q=%e9%95%bf%e8%a3%a4%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23002921&amp;q=%e5%87%89%e9%9e%8b%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23018771&amp;q=%e6%9d%bf%e9%9e%8b%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23008820&amp;q=%e5%86%ac%e9%9e%8b%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23018773&amp;q=%e5%a2%a8%e9%95%9c%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23012797&amp;q=%e4%bf%9d%e6%b9%bf%e9%9c%9c%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23016785&amp;q=%e6%8e%a7%e6%b2%b9%e7%94%b7</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23016787&amp;q=%e7%94%b7%e4%bf%9d%e6%b9%bf</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23006819&amp;q=%e7%94%b7%e8%a1%a5%e6%b0%b4</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>utf-8</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14608033&amp;q=%e4%bc%9e</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14608188&amp;q=%e5%8f%a3%e7%bd%a9</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14616217&amp;q=%e5%a5%b3%e8%a3%85%e5%a4%8f%e8%a3%85</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14604225&amp;q=%e9%95%bf%e8%a2%96t%e6%81%a4%e5%a5%b3%e6%ac%be</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14602228&amp;q=%e8%96%84%e5%a4%96%e5%a5%97%e5%a5%b3%e6%98%a5%e7%a7%8b%e8%96%84</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14622198&amp;q=%e6%af%9b%e8%a1%a3%e5%bc%80%e8%a1%ab</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14616218&amp;q=%e5%a4%a7%e8%a1%a3+%e5%a5%b3+%e5%a4%96%e5%a5%97+%e7%a7%8b%e5%86%ac</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14622199&amp;q=%e5%a4%96%e5%a5%97%e5%a5%b3%e5%86%ac</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14602230&amp;q=%e5%a4%8f%e5%ad%a3%e8%a3%a4%e8%a3%99</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14604229&amp;q=%e9%95%bf%e8%a3%a4%e7%a7%8b%e5%86%ac</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14620190&amp;q=%e5%87%89%e9%9e%8b</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14668992&amp;q=%e5%8d%95%e9%9e%8b</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_4356013_14612201&amp;q=%e5%86%ac%e9%9d%b4</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23012783&amp;q=%e5%a2%a8%e9%95%9c%e5%a5%b3</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23008813&amp;q=%e8%a1%a5%e6%b0%b4%e4%bf%9d%e6%b9%bf</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.m.taobao.com/s?p=mm_48666731_5796613_23016773&amp;q=%e6%8e%a7%e6%b2%b9+%e5%a5%b3</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2414,15 +2583,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2694,9 +2854,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2707,6 +2864,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2727,8 +2887,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7368,341 +7528,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="41.125" customWidth="1"/>
-    <col min="3" max="3" width="70.25" customWidth="1"/>
-    <col min="4" max="4" width="93.125" customWidth="1"/>
+    <col min="2" max="2" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="84.75" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="93.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>578</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="44" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="B5" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B6" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="B8" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="B9" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="E9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="B10" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B11" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="10" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="B12" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="B13" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="E13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B14" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B15" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="10" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B16" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="10" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="B17" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="E17" s="45" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B18" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="10" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="B19" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>577</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%94%b7%e8%a1%a5%e6%b0%b4"/>
-    <hyperlink ref="D18" r:id="rId2" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%94%b7%e4%bf%9d%e6%b9%bf"/>
-    <hyperlink ref="D17" r:id="rId3" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%8e%bb%e6%b2%b9%e7%94%b7" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%8e%bb%e6%b2%b9%e7%94%b7"/>
-    <hyperlink ref="D16" r:id="rId4" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e4%bf%9d%e6%b9%bf%e9%9c%9c%e7%94%b7"/>
-    <hyperlink ref="D15" r:id="rId5" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%a2%a8%e9%95%9c%e7%94%b7"/>
-    <hyperlink ref="D14" r:id="rId6" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%86%ac%e9%9e%8b%e7%94%b7"/>
-    <hyperlink ref="D13" r:id="rId7" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e6%9d%bf%e9%9e%8b%e7%94%b7"/>
-    <hyperlink ref="D12" r:id="rId8" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%87%89%e9%9e%8b%e7%94%b7"/>
-    <hyperlink ref="D11" r:id="rId9" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e9%95%bf%e8%a3%a4%e7%94%b7"/>
-    <hyperlink ref="D10" r:id="rId10" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%9f%ad%e8%a3%a4%e7%94%b7"/>
-    <hyperlink ref="D9" r:id="rId11" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%86%ac%e8%a3%85%e5%a4%96%e5%a5%97%e7%94%b7"/>
-    <hyperlink ref="D8" r:id="rId12" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%a4%a7%e8%a1%a3%e7%94%b7"/>
-    <hyperlink ref="D7" r:id="rId13" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e6%af%9b%e8%a1%a3+%e7%94%b7"/>
-    <hyperlink ref="D6" r:id="rId14" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e8%96%84%e5%a4%96%e5%a5%97+%e7%94%b7"/>
-    <hyperlink ref="D5" r:id="rId15" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e9%95%bf%e8%a2%96%e8%a1%ac%e8%a1%ab%e7%94%b7"/>
-    <hyperlink ref="D4" r:id="rId16" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%9f%ad%e8%a2%96%e7%94%b7"/>
-    <hyperlink ref="D3" r:id="rId17" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%8f%a3%e7%bd%a9pm2.5"/>
-    <hyperlink ref="D2" r:id="rId18"/>
-    <hyperlink ref="B4" r:id="rId19"/>
-    <hyperlink ref="B19" r:id="rId20"/>
-    <hyperlink ref="B18" r:id="rId21"/>
-    <hyperlink ref="B17" r:id="rId22"/>
-    <hyperlink ref="B16" r:id="rId23"/>
-    <hyperlink ref="B15" r:id="rId24"/>
-    <hyperlink ref="B14" r:id="rId25"/>
-    <hyperlink ref="B13" r:id="rId26"/>
-    <hyperlink ref="B12" r:id="rId27"/>
-    <hyperlink ref="B11" r:id="rId28"/>
-    <hyperlink ref="B10" r:id="rId29"/>
-    <hyperlink ref="B9" r:id="rId30"/>
-    <hyperlink ref="B8" r:id="rId31"/>
-    <hyperlink ref="B7" r:id="rId32"/>
-    <hyperlink ref="B6" r:id="rId33"/>
-    <hyperlink ref="B5" r:id="rId34"/>
-    <hyperlink ref="C19" r:id="rId35"/>
-    <hyperlink ref="C18" r:id="rId36"/>
-    <hyperlink ref="C17" r:id="rId37"/>
-    <hyperlink ref="C16" r:id="rId38"/>
-    <hyperlink ref="C15" r:id="rId39"/>
-    <hyperlink ref="C14" r:id="rId40"/>
-    <hyperlink ref="C13" r:id="rId41" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=板鞋男"/>
-    <hyperlink ref="C12" r:id="rId42"/>
-    <hyperlink ref="C11" r:id="rId43"/>
-    <hyperlink ref="C10" r:id="rId44"/>
-    <hyperlink ref="C9" r:id="rId45"/>
-    <hyperlink ref="C8" r:id="rId46"/>
-    <hyperlink ref="C7" r:id="rId47"/>
-    <hyperlink ref="C6" r:id="rId48"/>
-    <hyperlink ref="C5" r:id="rId49"/>
-    <hyperlink ref="C5:C19" r:id="rId50" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长袖衬衫男"/>
-    <hyperlink ref="C4" r:id="rId51"/>
-    <hyperlink ref="C3" r:id="rId52" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=口罩pm2.5"/>
-    <hyperlink ref="C2" r:id="rId53"/>
+    <hyperlink ref="E19" r:id="rId1" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%94%b7%e8%a1%a5%e6%b0%b4"/>
+    <hyperlink ref="E18" r:id="rId2" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%94%b7%e4%bf%9d%e6%b9%bf"/>
+    <hyperlink ref="E17" r:id="rId3" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%8e%bb%e6%b2%b9%e7%94%b7" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%8e%bb%e6%b2%b9%e7%94%b7"/>
+    <hyperlink ref="E16" r:id="rId4" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e4%bf%9d%e6%b9%bf%e9%9c%9c%e7%94%b7"/>
+    <hyperlink ref="E15" r:id="rId5" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%a2%a8%e9%95%9c%e7%94%b7"/>
+    <hyperlink ref="E14" r:id="rId6" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%86%ac%e9%9e%8b%e7%94%b7"/>
+    <hyperlink ref="E13" r:id="rId7" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e6%9d%bf%e9%9e%8b%e7%94%b7"/>
+    <hyperlink ref="E12" r:id="rId8" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%87%89%e9%9e%8b%e7%94%b7"/>
+    <hyperlink ref="E11" r:id="rId9" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e9%95%bf%e8%a3%a4%e7%94%b7"/>
+    <hyperlink ref="E10" r:id="rId10" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%9f%ad%e8%a3%a4%e7%94%b7"/>
+    <hyperlink ref="E9" r:id="rId11" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%86%ac%e8%a3%85%e5%a4%96%e5%a5%97%e7%94%b7"/>
+    <hyperlink ref="E8" r:id="rId12" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%a4%a7%e8%a1%a3%e7%94%b7"/>
+    <hyperlink ref="E7" r:id="rId13" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e6%af%9b%e8%a1%a3+%e7%94%b7"/>
+    <hyperlink ref="E6" r:id="rId14" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e8%96%84%e5%a4%96%e5%a5%97+%e7%94%b7"/>
+    <hyperlink ref="E5" r:id="rId15" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e9%95%bf%e8%a2%96%e8%a1%ac%e8%a1%ab%e7%94%b7"/>
+    <hyperlink ref="E4" r:id="rId16" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e7%9f%ad%e8%a2%96%e7%94%b7"/>
+    <hyperlink ref="E3" r:id="rId17" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%8f%a3%e7%bd%a9pm2.5"/>
+    <hyperlink ref="E2" r:id="rId18"/>
+    <hyperlink ref="D4" r:id="rId19"/>
+    <hyperlink ref="D19" r:id="rId20"/>
+    <hyperlink ref="D18" r:id="rId21"/>
+    <hyperlink ref="D17" r:id="rId22"/>
+    <hyperlink ref="D16" r:id="rId23"/>
+    <hyperlink ref="D15" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="D13" r:id="rId26"/>
+    <hyperlink ref="D12" r:id="rId27"/>
+    <hyperlink ref="D11" r:id="rId28"/>
+    <hyperlink ref="D10" r:id="rId29"/>
+    <hyperlink ref="D9" r:id="rId30"/>
+    <hyperlink ref="D8" r:id="rId31"/>
+    <hyperlink ref="D7" r:id="rId32"/>
+    <hyperlink ref="D6" r:id="rId33"/>
+    <hyperlink ref="D5" r:id="rId34"/>
+    <hyperlink ref="B19" r:id="rId35"/>
+    <hyperlink ref="B18" r:id="rId36"/>
+    <hyperlink ref="B17" r:id="rId37"/>
+    <hyperlink ref="B16" r:id="rId38"/>
+    <hyperlink ref="B15" r:id="rId39"/>
+    <hyperlink ref="B14" r:id="rId40"/>
+    <hyperlink ref="B13" r:id="rId41"/>
+    <hyperlink ref="B12" r:id="rId42"/>
+    <hyperlink ref="B11" r:id="rId43"/>
+    <hyperlink ref="B10" r:id="rId44"/>
+    <hyperlink ref="B9" r:id="rId45"/>
+    <hyperlink ref="B8" r:id="rId46"/>
+    <hyperlink ref="B5" r:id="rId47"/>
+    <hyperlink ref="B2" r:id="rId48"/>
+    <hyperlink ref="B3" r:id="rId49"/>
+    <hyperlink ref="B4" r:id="rId50"/>
+    <hyperlink ref="B6" r:id="rId51"/>
+    <hyperlink ref="B5:B19" r:id="rId52" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长袖衬衫男"/>
+    <hyperlink ref="B7" r:id="rId53"/>
+    <hyperlink ref="C19" r:id="rId54"/>
+    <hyperlink ref="C18" r:id="rId55"/>
+    <hyperlink ref="C17" r:id="rId56"/>
+    <hyperlink ref="C16" r:id="rId57"/>
+    <hyperlink ref="C15" r:id="rId58"/>
+    <hyperlink ref="C14" r:id="rId59"/>
+    <hyperlink ref="C13" r:id="rId60"/>
+    <hyperlink ref="C12" r:id="rId61"/>
+    <hyperlink ref="C11" r:id="rId62"/>
+    <hyperlink ref="C10" r:id="rId63"/>
+    <hyperlink ref="C9" r:id="rId64"/>
+    <hyperlink ref="C8" r:id="rId65"/>
+    <hyperlink ref="C5" r:id="rId66"/>
+    <hyperlink ref="C2" r:id="rId67"/>
+    <hyperlink ref="C3" r:id="rId68"/>
+    <hyperlink ref="C4" r:id="rId69"/>
+    <hyperlink ref="C6" r:id="rId70"/>
+    <hyperlink ref="C5:C19" r:id="rId71" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=长袖衬衫男"/>
+    <hyperlink ref="C7" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -7723,33 +7960,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -7773,37 +8010,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="9" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -7829,74 +8066,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -7922,15 +8159,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -7938,7 +8175,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -7946,7 +8183,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -7954,7 +8191,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -7989,114 +8226,114 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="8" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="8" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" s="8" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -8125,62 +8362,62 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="D2" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="D3" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="C5" s="6" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="C6" s="6" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -8211,31 +8448,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="C1" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -8262,227 +8499,227 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="B9" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="B10" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="B12" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="B13" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="B14" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="B15" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="B16" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="B17" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="B19" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="B20" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="B21" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="B22" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="B23" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="B24" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="B25" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="B26" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="B27" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="B28" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -8510,7 +8747,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8518,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8526,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8534,7 +8771,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8542,7 +8779,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8550,7 +8787,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8558,7 +8795,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8566,7 +8803,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8574,7 +8811,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8582,7 +8819,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8590,7 +8827,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8598,7 +8835,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8606,7 +8843,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8614,7 +8851,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -8637,79 +8874,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="B1" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="C1" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="C2" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="B3" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="C3" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="C5" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="B6" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
       <c r="C6" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="B8" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="C8" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="B9" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="C9" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -8722,356 +8959,440 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="66.75" customWidth="1"/>
-    <col min="5" max="5" width="80.25" customWidth="1"/>
+    <col min="2" max="2" width="60.25" customWidth="1"/>
+    <col min="3" max="3" width="104.5" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="80.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>389</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>576</v>
+        <v>651</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>373</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>581</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="D2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="10" t="s">
+        <v>602</v>
+      </c>
       <c r="C3" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="D4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="D5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="D6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="D8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="D9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="D10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="D11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="D14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F17" s="45" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F18" s="45" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>394</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>411</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>418</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>583</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>585</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>587</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>585</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>575</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>424</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="B22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="27">
+      <c r="B24" s="57" t="s">
+        <v>600</v>
+      </c>
+      <c r="C24" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="D22" r:id="rId2"/>
-    <hyperlink ref="D14" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D12" r:id="rId5"/>
-    <hyperlink ref="D11" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D8" r:id="rId9"/>
-    <hyperlink ref="D7" r:id="rId10"/>
-    <hyperlink ref="D6" r:id="rId11"/>
-    <hyperlink ref="D5" r:id="rId12"/>
-    <hyperlink ref="D4" r:id="rId13"/>
-    <hyperlink ref="D3" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15"/>
-    <hyperlink ref="C18" r:id="rId16"/>
-    <hyperlink ref="C17" r:id="rId17"/>
-    <hyperlink ref="C16" r:id="rId18"/>
-    <hyperlink ref="C15" r:id="rId19"/>
-    <hyperlink ref="C14" r:id="rId20"/>
-    <hyperlink ref="C13" r:id="rId21"/>
-    <hyperlink ref="C12" r:id="rId22"/>
-    <hyperlink ref="C11" r:id="rId23"/>
-    <hyperlink ref="C10" r:id="rId24"/>
-    <hyperlink ref="C9" r:id="rId25"/>
-    <hyperlink ref="C8" r:id="rId26"/>
-    <hyperlink ref="C7" r:id="rId27"/>
-    <hyperlink ref="C6" r:id="rId28"/>
-    <hyperlink ref="C5" r:id="rId29"/>
-    <hyperlink ref="C4" r:id="rId30"/>
-    <hyperlink ref="C3" r:id="rId31"/>
-    <hyperlink ref="D15:D19" r:id="rId32" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q="/>
-    <hyperlink ref="D2" r:id="rId33"/>
-    <hyperlink ref="E2" r:id="rId34"/>
-    <hyperlink ref="E15" r:id="rId35"/>
-    <hyperlink ref="E16:E19" r:id="rId36" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%8e%bb%e6%b2%b9%e7%94%b7" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%8e%bb%e6%b2%b9%e7%94%b7"/>
-    <hyperlink ref="D15" r:id="rId37"/>
-    <hyperlink ref="D16" r:id="rId38"/>
-    <hyperlink ref="E16" r:id="rId39"/>
-    <hyperlink ref="D17" r:id="rId40"/>
-    <hyperlink ref="E17" r:id="rId41"/>
-    <hyperlink ref="D18" r:id="rId42"/>
-    <hyperlink ref="E18" r:id="rId43"/>
-    <hyperlink ref="E19" r:id="rId44"/>
+    <hyperlink ref="D13" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B8" r:id="rId9"/>
+    <hyperlink ref="B7" r:id="rId10"/>
+    <hyperlink ref="B6" r:id="rId11"/>
+    <hyperlink ref="B5" r:id="rId12"/>
+    <hyperlink ref="B4" r:id="rId13"/>
+    <hyperlink ref="E19" r:id="rId14"/>
+    <hyperlink ref="E18" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E16" r:id="rId17"/>
+    <hyperlink ref="E15" r:id="rId18"/>
+    <hyperlink ref="E14" r:id="rId19"/>
+    <hyperlink ref="E13" r:id="rId20"/>
+    <hyperlink ref="E12" r:id="rId21"/>
+    <hyperlink ref="E11" r:id="rId22"/>
+    <hyperlink ref="E10" r:id="rId23"/>
+    <hyperlink ref="E9" r:id="rId24"/>
+    <hyperlink ref="E8" r:id="rId25"/>
+    <hyperlink ref="E7" r:id="rId26"/>
+    <hyperlink ref="E6" r:id="rId27"/>
+    <hyperlink ref="E5" r:id="rId28"/>
+    <hyperlink ref="E4" r:id="rId29"/>
+    <hyperlink ref="E3" r:id="rId30"/>
+    <hyperlink ref="F2" r:id="rId31"/>
+    <hyperlink ref="F15" r:id="rId32"/>
+    <hyperlink ref="F16:F19" r:id="rId33" tooltip="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%8e%bb%e6%b2%b9%e7%94%b7" display="http://r.m.taobao.com/s?p=mm_22983941_4132289_13398008&amp;q=%e5%8e%bb%e6%b2%b9%e7%94%b7"/>
+    <hyperlink ref="B15" r:id="rId34"/>
+    <hyperlink ref="B16" r:id="rId35"/>
+    <hyperlink ref="F16" r:id="rId36"/>
+    <hyperlink ref="B17" r:id="rId37"/>
+    <hyperlink ref="F17" r:id="rId38"/>
+    <hyperlink ref="F18" r:id="rId39"/>
+    <hyperlink ref="F19" r:id="rId40"/>
+    <hyperlink ref="B2" r:id="rId41"/>
+    <hyperlink ref="B3" r:id="rId42"/>
+    <hyperlink ref="B24" r:id="rId43"/>
+    <hyperlink ref="B18" r:id="rId44"/>
+    <hyperlink ref="B19" r:id="rId45"/>
+    <hyperlink ref="C14" r:id="rId46"/>
+    <hyperlink ref="C13" r:id="rId47"/>
+    <hyperlink ref="C12" r:id="rId48"/>
+    <hyperlink ref="C11" r:id="rId49"/>
+    <hyperlink ref="C10" r:id="rId50"/>
+    <hyperlink ref="C9" r:id="rId51"/>
+    <hyperlink ref="C8" r:id="rId52"/>
+    <hyperlink ref="C7" r:id="rId53"/>
+    <hyperlink ref="C6" r:id="rId54"/>
+    <hyperlink ref="C5" r:id="rId55"/>
+    <hyperlink ref="C4" r:id="rId56"/>
+    <hyperlink ref="C15" r:id="rId57"/>
+    <hyperlink ref="C16" r:id="rId58"/>
+    <hyperlink ref="C17" r:id="rId59"/>
+    <hyperlink ref="C2" r:id="rId60"/>
+    <hyperlink ref="C3" r:id="rId61"/>
+    <hyperlink ref="C18" r:id="rId62"/>
+    <hyperlink ref="C19" r:id="rId63"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9116,132 +9437,132 @@
   <sheetData>
     <row r="2" spans="1:5" s="4" customFormat="1">
       <c r="A2" s="12" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1">
       <c r="A10" s="12" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9249,214 +9570,214 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
       <c r="A12" s="31" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="31" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="31" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="31" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="31" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="31" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1">
       <c r="A19" s="12" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="31" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="31" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="31" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="31" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="31" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5">
@@ -9465,48 +9786,48 @@
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1">
       <c r="A26" s="12" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="31" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="31" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9527,7 +9848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -9540,441 +9861,441 @@
     <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="50" customFormat="1">
-      <c r="A1" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>602</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>603</v>
+    <row r="1" spans="1:5" s="49" customFormat="1">
+      <c r="A1" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="13" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="25" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="25" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="25" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>609</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="25" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>613</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>616</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>617</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>620</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>621</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="13" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>622</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="13" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>623</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="13" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="13" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>624</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="13" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>625</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="13" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>627</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="13" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>628</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="13" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="13" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>629</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="13" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>630</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="13" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>631</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="13" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>632</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9984,16 +10305,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="54" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E33" s="14"/>
     </row>
@@ -10001,50 +10322,50 @@
       <c r="A34" s="55"/>
       <c r="B34" s="52"/>
       <c r="C34" s="13" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="55"/>
       <c r="B35" s="52"/>
       <c r="C35" s="13" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="55"/>
       <c r="B36" s="52"/>
       <c r="C36" s="13" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="55"/>
       <c r="B37" s="52"/>
       <c r="C37" s="13" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="56"/>
       <c r="B38" s="53"/>
       <c r="C38" s="7" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -10077,354 +10398,354 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="21" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="21" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="21" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="21" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="21" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="21" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="21" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="21" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="21" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="21" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="21" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="21" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="21" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="21" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="21" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="21" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="21" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="21" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="21" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="21" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="21" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="21" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -10451,96 +10772,96 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="19" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -10567,564 +10888,564 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="C18" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D18" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="C19" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D19" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="C20" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D20" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1">
       <c r="A28" s="12" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="11" customFormat="1">
       <c r="A29" s="13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1" ht="14.25">
       <c r="A30" s="13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="14.25">
       <c r="A31" s="13" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1">
       <c r="A32" s="13" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5" s="7" customFormat="1">
       <c r="A33" s="13" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="7" customFormat="1" ht="14.25">
       <c r="A34" s="13" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1">
       <c r="A35" s="13" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1">
       <c r="A36" s="13" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1">
       <c r="A37" s="13" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="11" customFormat="1">
       <c r="A38" s="13" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" s="11" customFormat="1">
       <c r="A39" s="13" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5" s="11" customFormat="1">
       <c r="A40" s="13" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5" s="11" customFormat="1">
       <c r="A41" s="13" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1">
       <c r="A42" s="13" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1">
       <c r="A43" s="13" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1">
       <c r="A44" s="13" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1">
       <c r="A45" s="13" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:5" s="11" customFormat="1">
       <c r="A46" s="13" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E46" s="15"/>
     </row>
     <row r="47" spans="1:5" s="11" customFormat="1">
       <c r="A47" s="13" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:5" s="11" customFormat="1">
       <c r="A48" s="13" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5" s="11" customFormat="1">
       <c r="A49" s="13" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5" s="7" customFormat="1">
       <c r="A50" s="13" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1">
       <c r="A51" s="13" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1">
       <c r="A52" s="13" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="7" customFormat="1">
       <c r="A53" s="13" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1">
       <c r="A54" s="13" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="11" customFormat="1">
       <c r="A55" s="13" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" s="11" customFormat="1">
       <c r="A56" s="13" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E56" s="15"/>
     </row>
@@ -11159,651 +11480,651 @@
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="C2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>144</v>
+        <v>127</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>128</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>147</v>
+        <v>130</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>131</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>150</v>
+        <v>133</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>134</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="D5" s="57" t="s">
-        <v>82</v>
+      <c r="D5" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="D6" s="57" t="s">
-        <v>87</v>
+      <c r="D6" s="50" t="s">
+        <v>71</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7" s="57" t="s">
-        <v>90</v>
+      <c r="D7" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="57" t="s">
-        <v>92</v>
+      <c r="D8" s="50" t="s">
+        <v>76</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25">
       <c r="F9" s="28" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>160</v>
+        <v>143</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>144</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>160</v>
+        <v>149</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>144</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>160</v>
+        <v>153</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>144</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="13" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>180</v>
+        <v>163</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>164</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="13" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>185</v>
+        <v>168</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>169</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>174</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>195</v>
+        <v>178</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>179</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>200</v>
+        <v>183</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>184</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>205</v>
+        <v>188</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>189</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>210</v>
+        <v>193</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>194</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="13" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="13" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="13" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="13" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="13" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>246</v>
+        <v>229</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>230</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="13" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="13" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="13" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="13" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="13" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="13" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="13" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="13" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="13" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="13" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -11832,178 +12153,178 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C16" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C18" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B20" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C20" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B21" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C21" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
